--- a/ALL Funded ARCHES Projects v33_fixed.xlsx
+++ b/ALL Funded ARCHES Projects v33_fixed.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vinho\Documents\UIUC\ARCHES\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4932C14-522A-46A9-9663-3F3311EB8CC8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8005EA7B-0A40-42BD-AACC-47339815E66F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2241" uniqueCount="812">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2241" uniqueCount="810">
   <si>
     <t>Year</t>
   </si>
@@ -214,9 +214,6 @@
   </si>
   <si>
     <t>Deborah Thurston</t>
-  </si>
-  <si>
-    <t>Rick Pearl</t>
   </si>
   <si>
     <t>Recorded Patient Discharge Process and Communications Simulation Training</t>
@@ -775,9 +772,6 @@
   </si>
   <si>
     <t>C. Reddy</t>
-  </si>
-  <si>
-    <t>Pearl Richard H</t>
   </si>
   <si>
     <t>P204</t>
@@ -3828,8 +3822,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E53" zoomScale="86" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G55" sqref="G55"/>
+    <sheetView tabSelected="1" topLeftCell="F21" zoomScale="86" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3839,13 +3833,25 @@
     <col min="3" max="3" width="11.33203125" style="2" customWidth="1"/>
     <col min="4" max="4" width="20.6640625" style="4" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="26.33203125" style="9" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="179.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="154.33203125" style="2" customWidth="1"/>
     <col min="8" max="8" width="15.33203125" style="3" hidden="1" customWidth="1"/>
     <col min="9" max="9" width="21.6640625" style="2" hidden="1" customWidth="1"/>
-    <col min="10" max="19" width="9.109375" style="2" hidden="1" customWidth="1"/>
-    <col min="20" max="20" width="18.33203125" style="2" hidden="1" customWidth="1"/>
-    <col min="21" max="21" width="15" style="2" hidden="1" customWidth="1"/>
-    <col min="22" max="26" width="0" style="2" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="9.109375" style="2" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="19.109375" style="2" customWidth="1"/>
+    <col min="12" max="12" width="19.33203125" style="2" customWidth="1"/>
+    <col min="13" max="13" width="17.33203125" style="2" customWidth="1"/>
+    <col min="14" max="14" width="18.33203125" style="2" customWidth="1"/>
+    <col min="15" max="15" width="20.5546875" style="2" customWidth="1"/>
+    <col min="16" max="16" width="19" style="2" customWidth="1"/>
+    <col min="17" max="17" width="19.6640625" style="2" customWidth="1"/>
+    <col min="18" max="18" width="19.109375" style="2" customWidth="1"/>
+    <col min="19" max="19" width="17.21875" style="2" customWidth="1"/>
+    <col min="20" max="20" width="23.6640625" style="2" customWidth="1"/>
+    <col min="21" max="21" width="8.44140625" style="2" customWidth="1"/>
+    <col min="22" max="22" width="12.44140625" style="2" customWidth="1"/>
+    <col min="23" max="23" width="20" style="2" customWidth="1"/>
+    <col min="24" max="24" width="14.33203125" style="2" customWidth="1"/>
+    <col min="25" max="26" width="11.77734375" style="2" customWidth="1"/>
     <col min="27" max="27" width="14.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="28" max="16384" width="9.109375" style="2"/>
   </cols>
@@ -3930,7 +3936,7 @@
         <v>25</v>
       </c>
       <c r="AA1" s="108" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
     </row>
     <row r="2" spans="1:27" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -3983,7 +3989,7 @@
         <v>33</v>
       </c>
       <c r="AA2" s="13" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
     </row>
     <row r="3" spans="1:27" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -4033,7 +4039,7 @@
         <v>33</v>
       </c>
       <c r="AA3" s="13" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
     </row>
     <row r="4" spans="1:27" s="5" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
@@ -4086,7 +4092,7 @@
         <v>33</v>
       </c>
       <c r="AA4" s="13" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
     </row>
     <row r="5" spans="1:27" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -4139,7 +4145,7 @@
         <v>33</v>
       </c>
       <c r="AA5" s="13" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
     </row>
     <row r="6" spans="1:27" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -4156,7 +4162,7 @@
         <v>49</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="F6" s="9" t="s">
         <v>51</v>
@@ -4192,7 +4198,7 @@
         <v>33</v>
       </c>
       <c r="AA6" s="13" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
     </row>
     <row r="7" spans="1:27" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -4209,7 +4215,7 @@
         <v>54</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F7" s="9" t="s">
         <v>40</v>
@@ -4242,7 +4248,7 @@
         <v>33</v>
       </c>
       <c r="AA7" s="13" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
     </row>
     <row r="8" spans="1:27" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -4262,10 +4268,10 @@
         <v>58</v>
       </c>
       <c r="F8" s="9" t="s">
+        <v>438</v>
+      </c>
+      <c r="G8" s="5" t="s">
         <v>59</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>60</v>
       </c>
       <c r="H8" s="7">
         <v>53032</v>
@@ -4292,7 +4298,7 @@
         <v>33</v>
       </c>
       <c r="AA8" s="13" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
     </row>
     <row r="9" spans="1:27" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -4300,7 +4306,7 @@
         <v>2016</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E9" s="9" t="s">
         <v>35</v>
@@ -4309,13 +4315,13 @@
         <v>40</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H9" s="7">
         <v>149671</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="T9" s="103" t="s">
         <v>32</v>
@@ -4339,7 +4345,7 @@
         <v>33</v>
       </c>
       <c r="AA9" s="13" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
     </row>
     <row r="10" spans="1:27" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -4350,19 +4356,19 @@
         <v>8</v>
       </c>
       <c r="C10" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D10" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="E10" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="E10" s="9" t="s">
+      <c r="F10" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="F10" s="9" t="s">
+      <c r="G10" s="5" t="s">
         <v>68</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>69</v>
       </c>
       <c r="H10" s="7">
         <v>58356</v>
@@ -4392,7 +4398,7 @@
         <v>33</v>
       </c>
       <c r="AA10" s="13" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
     </row>
     <row r="11" spans="1:27" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -4403,10 +4409,10 @@
         <v>9</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E11" s="9" t="s">
         <v>28</v>
@@ -4415,16 +4421,16 @@
         <v>29</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H11" s="7">
         <v>50209</v>
       </c>
       <c r="I11" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="J11" s="5" t="s">
         <v>72</v>
-      </c>
-      <c r="J11" s="5" t="s">
-        <v>73</v>
       </c>
       <c r="T11" s="103" t="s">
         <v>32</v>
@@ -4448,7 +4454,7 @@
         <v>33</v>
       </c>
       <c r="AA11" s="13" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
     </row>
     <row r="12" spans="1:27" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -4459,19 +4465,19 @@
         <v>10</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D12" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="E12" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="E12" s="9" t="s">
+      <c r="F12" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="G12" s="5" t="s">
         <v>75</v>
-      </c>
-      <c r="F12" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>76</v>
       </c>
       <c r="H12" s="7">
         <v>113958</v>
@@ -4480,10 +4486,10 @@
         <v>35</v>
       </c>
       <c r="J12" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="K12" s="5" t="s">
         <v>77</v>
-      </c>
-      <c r="K12" s="5" t="s">
-        <v>78</v>
       </c>
       <c r="T12" s="103" t="s">
         <v>38</v>
@@ -4507,7 +4513,7 @@
         <v>33</v>
       </c>
       <c r="AA12" s="13" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
     </row>
     <row r="13" spans="1:27" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -4518,31 +4524,31 @@
         <v>11</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D13" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E13" s="9" t="s">
         <v>79</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>80</v>
       </c>
       <c r="F13" s="9" t="s">
         <v>40</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H13" s="7">
         <v>69750</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J13" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="K13" s="5" t="s">
         <v>82</v>
-      </c>
-      <c r="K13" s="5" t="s">
-        <v>83</v>
       </c>
       <c r="T13" s="103" t="s">
         <v>32</v>
@@ -4566,7 +4572,7 @@
         <v>33</v>
       </c>
       <c r="AA13" s="13" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
     </row>
     <row r="14" spans="1:27" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -4577,25 +4583,25 @@
         <v>12</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D14" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="E14" s="9" t="s">
         <v>84</v>
-      </c>
-      <c r="E14" s="9" t="s">
-        <v>85</v>
       </c>
       <c r="F14" s="9" t="s">
         <v>41</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H14" s="7">
         <v>65000</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="T14" s="103" t="s">
         <v>32</v>
@@ -4619,7 +4625,7 @@
         <v>33</v>
       </c>
       <c r="AA14" s="13" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
     </row>
     <row r="15" spans="1:27" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -4633,22 +4639,22 @@
         <v>26</v>
       </c>
       <c r="D15" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="E15" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="E15" s="9" t="s">
+      <c r="F15" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="F15" s="9" t="s">
+      <c r="G15" s="5" t="s">
         <v>90</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>91</v>
       </c>
       <c r="H15" s="7">
         <v>49976</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="T15" s="103" t="s">
         <v>32</v>
@@ -4672,7 +4678,7 @@
         <v>33</v>
       </c>
       <c r="AA15" s="13" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
     </row>
     <row r="16" spans="1:27" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -4686,22 +4692,22 @@
         <v>26</v>
       </c>
       <c r="D16" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="E16" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="E16" s="9" t="s">
+      <c r="F16" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="G16" s="5" t="s">
         <v>93</v>
-      </c>
-      <c r="F16" s="9" t="s">
-        <v>135</v>
-      </c>
-      <c r="G16" s="5" t="s">
-        <v>94</v>
       </c>
       <c r="H16" s="7">
         <v>90079</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J16" s="5" t="s">
         <v>43</v>
@@ -4728,7 +4734,7 @@
         <v>33</v>
       </c>
       <c r="AA16" s="13" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
     </row>
     <row r="17" spans="1:27" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -4739,25 +4745,25 @@
         <v>15</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F17" s="9" t="s">
         <v>40</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H17" s="7">
         <v>86862</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="T17" s="103" t="s">
         <v>32</v>
@@ -4781,7 +4787,7 @@
         <v>33</v>
       </c>
       <c r="AA17" s="13" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
     </row>
     <row r="18" spans="1:27" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -4792,25 +4798,25 @@
         <v>16</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D18" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E18" s="9" t="s">
         <v>98</v>
-      </c>
-      <c r="E18" s="9" t="s">
-        <v>99</v>
       </c>
       <c r="F18" s="9" t="s">
         <v>41</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H18" s="7">
         <v>34250</v>
       </c>
       <c r="I18" s="5" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="T18" s="103" t="s">
         <v>38</v>
@@ -4834,7 +4840,7 @@
         <v>33</v>
       </c>
       <c r="AA18" s="13" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
     </row>
     <row r="19" spans="1:27" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -4848,31 +4854,31 @@
         <v>26</v>
       </c>
       <c r="D19" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="E19" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="E19" s="9" t="s">
+      <c r="F19" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="F19" s="9" t="s">
+      <c r="G19" s="5" t="s">
         <v>103</v>
-      </c>
-      <c r="G19" s="5" t="s">
-        <v>104</v>
       </c>
       <c r="H19" s="7">
         <v>46464</v>
       </c>
       <c r="I19" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="J19" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="J19" s="5" t="s">
+      <c r="K19" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="K19" s="5" t="s">
+      <c r="L19" s="5" t="s">
         <v>107</v>
-      </c>
-      <c r="L19" s="5" t="s">
-        <v>108</v>
       </c>
       <c r="T19" s="103" t="s">
         <v>32</v>
@@ -4896,7 +4902,7 @@
         <v>33</v>
       </c>
       <c r="AA19" s="13" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
     </row>
     <row r="20" spans="1:27" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -4910,22 +4916,22 @@
         <v>26</v>
       </c>
       <c r="D20" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="E20" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="E20" s="9" t="s">
+      <c r="F20" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="F20" s="9" t="s">
+      <c r="G20" s="5" t="s">
         <v>111</v>
-      </c>
-      <c r="G20" s="5" t="s">
-        <v>112</v>
       </c>
       <c r="H20" s="7">
         <v>74400</v>
       </c>
       <c r="I20" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="T20" s="103" t="s">
         <v>32</v>
@@ -4949,7 +4955,7 @@
         <v>33</v>
       </c>
       <c r="AA20" s="13" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
     </row>
     <row r="21" spans="1:27" s="5" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
@@ -4963,31 +4969,31 @@
         <v>26</v>
       </c>
       <c r="D21" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="F21" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="E21" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="F21" s="12" t="s">
+      <c r="G21" s="5" t="s">
         <v>115</v>
-      </c>
-      <c r="G21" s="5" t="s">
-        <v>116</v>
       </c>
       <c r="H21" s="7">
         <v>67420</v>
       </c>
       <c r="I21" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J21" s="5" t="s">
         <v>36</v>
       </c>
       <c r="K21" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="L21" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="T21" s="103" t="s">
         <v>32</v>
@@ -5011,7 +5017,7 @@
         <v>33</v>
       </c>
       <c r="AA21" s="13" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
     </row>
     <row r="22" spans="1:27" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -5025,22 +5031,22 @@
         <v>26</v>
       </c>
       <c r="D22" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="F22" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="G22" s="5" t="s">
         <v>120</v>
-      </c>
-      <c r="E22" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="F22" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="G22" s="5" t="s">
-        <v>121</v>
       </c>
       <c r="H22" s="7">
         <v>88820</v>
       </c>
       <c r="I22" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="T22" s="103" t="s">
         <v>38</v>
@@ -5064,7 +5070,7 @@
         <v>33</v>
       </c>
       <c r="AA22" s="13" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
     </row>
     <row r="23" spans="1:27" s="5" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
@@ -5078,16 +5084,16 @@
         <v>26</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E23" s="12" t="s">
         <v>41</v>
       </c>
       <c r="F23" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="G23" s="5" t="s">
         <v>123</v>
-      </c>
-      <c r="G23" s="5" t="s">
-        <v>124</v>
       </c>
       <c r="H23" s="7">
         <v>203850</v>
@@ -5096,10 +5102,10 @@
         <v>51</v>
       </c>
       <c r="J23" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="K23" s="5" t="s">
         <v>125</v>
-      </c>
-      <c r="K23" s="5" t="s">
-        <v>126</v>
       </c>
       <c r="T23" s="103" t="s">
         <v>32</v>
@@ -5123,7 +5129,7 @@
         <v>33</v>
       </c>
       <c r="AA23" s="13" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
     </row>
     <row r="24" spans="1:27" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -5137,28 +5143,28 @@
         <v>26</v>
       </c>
       <c r="D24" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="F24" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="G24" s="5" t="s">
         <v>127</v>
-      </c>
-      <c r="E24" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="F24" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="G24" s="5" t="s">
-        <v>128</v>
       </c>
       <c r="H24" s="7">
         <v>52224</v>
       </c>
       <c r="I24" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J24" s="5" t="s">
         <v>35</v>
       </c>
       <c r="K24" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="T24" s="103" t="s">
         <v>38</v>
@@ -5182,7 +5188,7 @@
         <v>33</v>
       </c>
       <c r="AA24" s="13" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
     </row>
     <row r="25" spans="1:27" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -5196,16 +5202,16 @@
         <v>26</v>
       </c>
       <c r="D25" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="F25" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="G25" s="5" t="s">
         <v>130</v>
-      </c>
-      <c r="E25" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="F25" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="G25" s="5" t="s">
-        <v>131</v>
       </c>
       <c r="H25" s="7">
         <v>71000</v>
@@ -5232,7 +5238,7 @@
         <v>33</v>
       </c>
       <c r="AA25" s="13" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
     </row>
     <row r="26" spans="1:27" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -5246,16 +5252,16 @@
         <v>26</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F26" s="9" t="s">
         <v>40</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H26" s="7">
         <v>90185</v>
@@ -5293,7 +5299,7 @@
         <v>33</v>
       </c>
       <c r="AA26" s="13" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
     </row>
     <row r="27" spans="1:27" s="5" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
@@ -5307,16 +5313,16 @@
         <v>26</v>
       </c>
       <c r="D27" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="E27" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="E27" s="9" t="s">
+      <c r="F27" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="G27" s="5" t="s">
         <v>135</v>
-      </c>
-      <c r="F27" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="G27" s="5" t="s">
-        <v>136</v>
       </c>
       <c r="H27" s="7">
         <v>75000</v>
@@ -5354,7 +5360,7 @@
         <v>33</v>
       </c>
       <c r="AA27" s="13" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
     </row>
     <row r="28" spans="1:27" s="5" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
@@ -5368,16 +5374,16 @@
         <v>26</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="F28" s="12" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H28" s="7">
         <v>57093</v>
@@ -5415,7 +5421,7 @@
         <v>33</v>
       </c>
       <c r="AA28" s="13" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
     </row>
     <row r="29" spans="1:27" s="5" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
@@ -5429,28 +5435,28 @@
         <v>26</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F29" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="G29" s="5" t="s">
         <v>115</v>
-      </c>
-      <c r="G29" s="5" t="s">
-        <v>116</v>
       </c>
       <c r="H29" s="7">
         <v>76360</v>
       </c>
       <c r="I29" s="12" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="J29" s="12" t="s">
         <v>36</v>
       </c>
       <c r="K29" s="13" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="L29" s="12"/>
       <c r="M29" s="12"/>
@@ -5482,7 +5488,7 @@
         <v>33</v>
       </c>
       <c r="AA29" s="13" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
     </row>
     <row r="30" spans="1:27" s="5" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
@@ -5496,25 +5502,25 @@
         <v>26</v>
       </c>
       <c r="D30" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="E30" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="F30" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="G30" s="5" t="s">
         <v>142</v>
-      </c>
-      <c r="E30" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="F30" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="G30" s="5" t="s">
-        <v>143</v>
       </c>
       <c r="H30" s="7">
         <v>75000</v>
       </c>
       <c r="I30" s="12" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="J30" s="12" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K30" s="12"/>
       <c r="L30" s="12"/>
@@ -5547,7 +5553,7 @@
         <v>33</v>
       </c>
       <c r="AA30" s="13" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
     </row>
     <row r="31" spans="1:27" s="5" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
@@ -5561,28 +5567,28 @@
         <v>26</v>
       </c>
       <c r="D31" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="E31" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="E31" s="9" t="s">
+      <c r="F31" s="12" t="s">
         <v>146</v>
       </c>
-      <c r="F31" s="12" t="s">
+      <c r="G31" s="5" t="s">
         <v>147</v>
-      </c>
-      <c r="G31" s="5" t="s">
-        <v>148</v>
       </c>
       <c r="H31" s="7">
         <v>75000</v>
       </c>
       <c r="I31" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="J31" s="12" t="s">
         <v>149</v>
       </c>
-      <c r="J31" s="12" t="s">
+      <c r="K31" t="s">
         <v>150</v>
-      </c>
-      <c r="K31" t="s">
-        <v>151</v>
       </c>
       <c r="L31" s="13"/>
       <c r="M31" s="12"/>
@@ -5614,7 +5620,7 @@
         <v>32</v>
       </c>
       <c r="AA31" s="13" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
     </row>
     <row r="32" spans="1:27" s="5" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
@@ -5628,34 +5634,34 @@
         <v>26</v>
       </c>
       <c r="D32" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="E32" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="E32" s="9" t="s">
+      <c r="F32" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="G32" s="5" t="s">
         <v>153</v>
-      </c>
-      <c r="F32" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="G32" s="5" t="s">
-        <v>154</v>
       </c>
       <c r="H32" s="7">
         <v>49953</v>
       </c>
       <c r="I32" s="12" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="J32" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="K32" s="12" t="s">
         <v>156</v>
       </c>
-      <c r="K32" s="12" t="s">
+      <c r="L32" s="12" t="s">
         <v>157</v>
       </c>
-      <c r="L32" s="12" t="s">
-        <v>158</v>
-      </c>
       <c r="M32" s="12" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="N32" s="12"/>
       <c r="O32" s="12"/>
@@ -5685,7 +5691,7 @@
         <v>33</v>
       </c>
       <c r="AA32" s="13" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
     </row>
     <row r="33" spans="1:27" s="5" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
@@ -5699,22 +5705,22 @@
         <v>26</v>
       </c>
       <c r="D33" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="E33" s="9" t="s">
         <v>159</v>
       </c>
-      <c r="E33" s="9" t="s">
+      <c r="F33" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="G33" s="5" t="s">
         <v>160</v>
-      </c>
-      <c r="F33" s="12" t="s">
-        <v>135</v>
-      </c>
-      <c r="G33" s="5" t="s">
-        <v>161</v>
       </c>
       <c r="H33" s="7">
         <v>69211</v>
       </c>
       <c r="I33" s="12" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="J33" s="13"/>
       <c r="K33" s="12"/>
@@ -5748,7 +5754,7 @@
         <v>33</v>
       </c>
       <c r="AA33" s="13" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
     </row>
     <row r="34" spans="1:27" s="5" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
@@ -5762,28 +5768,28 @@
         <v>26</v>
       </c>
       <c r="D34" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="E34" s="9" t="s">
         <v>163</v>
       </c>
-      <c r="E34" s="9" t="s">
+      <c r="F34" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="G34" s="5" t="s">
         <v>164</v>
-      </c>
-      <c r="F34" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="G34" s="5" t="s">
-        <v>165</v>
       </c>
       <c r="H34" s="7">
         <v>50000</v>
       </c>
       <c r="I34" s="12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J34" s="12" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="K34" s="12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L34" s="12"/>
       <c r="M34" s="12"/>
@@ -5815,7 +5821,7 @@
         <v>33</v>
       </c>
       <c r="AA34" s="13" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
     </row>
     <row r="35" spans="1:27" s="5" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
@@ -5829,49 +5835,49 @@
         <v>26</v>
       </c>
       <c r="D35" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="E35" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="E35" s="9" t="s">
+      <c r="F35" s="12" t="s">
+        <v>235</v>
+      </c>
+      <c r="G35" s="5" t="s">
         <v>168</v>
-      </c>
-      <c r="F35" s="12" t="s">
-        <v>237</v>
-      </c>
-      <c r="G35" s="5" t="s">
-        <v>169</v>
       </c>
       <c r="H35" s="7">
         <v>96769</v>
       </c>
       <c r="I35" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="J35" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="K35" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="L35" s="12" t="s">
         <v>170</v>
       </c>
-      <c r="J35" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="K35" s="12" t="s">
-        <v>141</v>
-      </c>
-      <c r="L35" s="12" t="s">
+      <c r="M35" s="12" t="s">
         <v>171</v>
       </c>
-      <c r="M35" s="12" t="s">
+      <c r="N35" s="12" t="s">
         <v>172</v>
       </c>
-      <c r="N35" s="12" t="s">
+      <c r="O35" s="12" t="s">
         <v>173</v>
       </c>
-      <c r="O35" s="12" t="s">
+      <c r="P35" s="12" t="s">
         <v>174</v>
       </c>
-      <c r="P35" s="12" t="s">
+      <c r="Q35" s="12" t="s">
         <v>175</v>
       </c>
-      <c r="Q35" s="12" t="s">
+      <c r="R35" s="12" t="s">
         <v>176</v>
-      </c>
-      <c r="R35" s="12" t="s">
-        <v>177</v>
       </c>
       <c r="S35" s="13"/>
       <c r="T35" s="103" t="s">
@@ -5896,7 +5902,7 @@
         <v>33</v>
       </c>
       <c r="AA35" s="13" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
     </row>
     <row r="36" spans="1:27" s="5" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
@@ -5910,28 +5916,28 @@
         <v>26</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E36" s="9" t="s">
         <v>28</v>
       </c>
       <c r="F36" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="G36" s="5" t="s">
         <v>179</v>
-      </c>
-      <c r="G36" s="5" t="s">
-        <v>180</v>
       </c>
       <c r="H36" s="7">
         <v>61533</v>
       </c>
       <c r="I36" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="J36" s="12" t="s">
         <v>181</v>
       </c>
-      <c r="J36" s="12" t="s">
+      <c r="K36" s="12" t="s">
         <v>182</v>
-      </c>
-      <c r="K36" s="12" t="s">
-        <v>183</v>
       </c>
       <c r="L36" s="13"/>
       <c r="M36" s="12"/>
@@ -5963,7 +5969,7 @@
         <v>33</v>
       </c>
       <c r="AA36" s="13" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
     </row>
     <row r="37" spans="1:27" s="5" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
@@ -5977,40 +5983,40 @@
         <v>26</v>
       </c>
       <c r="D37" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="E37" s="9" t="s">
         <v>184</v>
       </c>
-      <c r="E37" s="9" t="s">
+      <c r="F37" s="9" t="s">
+        <v>438</v>
+      </c>
+      <c r="G37" s="5" t="s">
         <v>185</v>
-      </c>
-      <c r="F37" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="G37" s="5" t="s">
-        <v>186</v>
       </c>
       <c r="H37" s="7">
         <v>81568</v>
       </c>
       <c r="I37" s="12" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="J37" s="12" t="s">
+        <v>186</v>
+      </c>
+      <c r="K37" s="12" t="s">
         <v>187</v>
       </c>
-      <c r="K37" s="12" t="s">
+      <c r="L37" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="M37" s="12" t="s">
         <v>188</v>
       </c>
-      <c r="L37" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="M37" s="12" t="s">
+      <c r="N37" s="12" t="s">
         <v>189</v>
       </c>
-      <c r="N37" s="12" t="s">
+      <c r="O37" s="12" t="s">
         <v>190</v>
-      </c>
-      <c r="O37" s="12" t="s">
-        <v>191</v>
       </c>
       <c r="P37" s="12"/>
       <c r="Q37" s="12"/>
@@ -6038,7 +6044,7 @@
         <v>33</v>
       </c>
       <c r="AA37" s="13" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
     </row>
     <row r="38" spans="1:27" s="5" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
@@ -6052,25 +6058,25 @@
         <v>26</v>
       </c>
       <c r="D38" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="E38" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="F38" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="G38" s="5" t="s">
         <v>192</v>
-      </c>
-      <c r="E38" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="F38" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="G38" s="5" t="s">
-        <v>193</v>
       </c>
       <c r="H38" s="7">
         <v>75000</v>
       </c>
       <c r="I38" s="13" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J38" s="12" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="K38" s="12"/>
       <c r="L38" s="12"/>
@@ -6103,7 +6109,7 @@
         <v>33</v>
       </c>
       <c r="AA38" s="13" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
     </row>
     <row r="39" spans="1:27" s="5" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
@@ -6117,25 +6123,25 @@
         <v>26</v>
       </c>
       <c r="D39" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="E39" s="9" t="s">
         <v>195</v>
       </c>
-      <c r="E39" s="9" t="s">
+      <c r="F39" s="12" t="s">
         <v>196</v>
       </c>
-      <c r="F39" s="12" t="s">
+      <c r="G39" s="5" t="s">
         <v>197</v>
-      </c>
-      <c r="G39" s="5" t="s">
-        <v>198</v>
       </c>
       <c r="H39" s="7">
         <v>50000</v>
       </c>
       <c r="I39" s="12" t="s">
+        <v>198</v>
+      </c>
+      <c r="J39" s="12" t="s">
         <v>199</v>
-      </c>
-      <c r="J39" s="12" t="s">
-        <v>200</v>
       </c>
       <c r="K39" s="13"/>
       <c r="L39" s="12"/>
@@ -6168,7 +6174,7 @@
         <v>33</v>
       </c>
       <c r="AA39" s="13" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
     </row>
     <row r="40" spans="1:27" s="5" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
@@ -6182,22 +6188,22 @@
         <v>26</v>
       </c>
       <c r="D40" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="E40" s="9" t="s">
         <v>201</v>
-      </c>
-      <c r="E40" s="9" t="s">
-        <v>202</v>
       </c>
       <c r="F40" s="12" t="s">
         <v>40</v>
       </c>
       <c r="G40" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H40" s="7">
         <v>69906</v>
       </c>
       <c r="I40" s="12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J40" s="13"/>
       <c r="K40" s="12"/>
@@ -6231,7 +6237,7 @@
         <v>32</v>
       </c>
       <c r="AA40" s="13" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
     </row>
     <row r="41" spans="1:27" s="5" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
@@ -6245,25 +6251,25 @@
         <v>26</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E41" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F41" s="12" t="s">
         <v>40</v>
       </c>
       <c r="G41" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H41" s="7">
         <v>124516</v>
       </c>
       <c r="I41" s="12" t="s">
+        <v>205</v>
+      </c>
+      <c r="J41" s="12" t="s">
         <v>206</v>
-      </c>
-      <c r="J41" s="12" t="s">
-        <v>207</v>
       </c>
       <c r="K41" s="13"/>
       <c r="L41" s="12"/>
@@ -6296,7 +6302,7 @@
         <v>33</v>
       </c>
       <c r="AA41" s="13" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
     </row>
     <row r="42" spans="1:27" ht="14.4" x14ac:dyDescent="0.3">
@@ -6307,22 +6313,22 @@
         <v>26</v>
       </c>
       <c r="D42" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="E42" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="F42" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="G42" s="2" t="s">
         <v>208</v>
-      </c>
-      <c r="E42" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="F42" s="12" t="s">
-        <v>179</v>
-      </c>
-      <c r="G42" s="2" t="s">
-        <v>209</v>
       </c>
       <c r="H42" s="3">
         <v>74957</v>
       </c>
       <c r="I42" s="12" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="J42" s="12" t="s">
         <v>46</v>
@@ -6358,7 +6364,7 @@
         <v>33</v>
       </c>
       <c r="AA42" s="15" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
     </row>
     <row r="43" spans="1:27" ht="14.4" x14ac:dyDescent="0.3">
@@ -6369,25 +6375,25 @@
         <v>26</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E43" s="9" t="s">
         <v>46</v>
       </c>
       <c r="F43" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="G43" s="2" t="s">
         <v>212</v>
-      </c>
-      <c r="G43" s="2" t="s">
-        <v>213</v>
       </c>
       <c r="H43" s="3">
         <v>70548.34</v>
       </c>
       <c r="I43" s="12" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="J43" s="12" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="K43" s="15"/>
       <c r="L43" s="12"/>
@@ -6420,7 +6426,7 @@
         <v>33</v>
       </c>
       <c r="AA43" s="15" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
     </row>
     <row r="44" spans="1:27" ht="14.4" x14ac:dyDescent="0.3">
@@ -6431,28 +6437,28 @@
         <v>26</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E44" s="9" t="s">
         <v>35</v>
       </c>
       <c r="F44" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="G44" s="2" t="s">
         <v>216</v>
-      </c>
-      <c r="G44" s="2" t="s">
-        <v>217</v>
       </c>
       <c r="H44" s="3">
         <v>74536</v>
       </c>
       <c r="I44" s="109" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="J44" s="12" t="s">
+        <v>217</v>
+      </c>
+      <c r="K44" s="12" t="s">
         <v>218</v>
-      </c>
-      <c r="K44" s="12" t="s">
-        <v>219</v>
       </c>
       <c r="L44" s="12"/>
       <c r="M44" s="12"/>
@@ -6484,7 +6490,7 @@
         <v>33</v>
       </c>
       <c r="AA44" s="15" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
     </row>
     <row r="45" spans="1:27" ht="14.4" x14ac:dyDescent="0.3">
@@ -6495,28 +6501,28 @@
         <v>26</v>
       </c>
       <c r="D45" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="E45" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="F45" s="12" t="s">
         <v>220</v>
       </c>
-      <c r="E45" s="9" t="s">
-        <v>212</v>
-      </c>
-      <c r="F45" s="12" t="s">
+      <c r="G45" s="16" t="s">
         <v>221</v>
-      </c>
-      <c r="G45" s="16" t="s">
-        <v>222</v>
       </c>
       <c r="H45" s="3">
         <v>75000.100000000006</v>
       </c>
       <c r="I45" s="12" t="s">
+        <v>222</v>
+      </c>
+      <c r="J45" s="12" t="s">
         <v>223</v>
       </c>
-      <c r="J45" s="12" t="s">
+      <c r="K45" s="12" t="s">
         <v>224</v>
-      </c>
-      <c r="K45" s="12" t="s">
-        <v>225</v>
       </c>
       <c r="L45" s="15"/>
       <c r="M45" s="12"/>
@@ -6548,7 +6554,7 @@
         <v>32</v>
       </c>
       <c r="AA45" s="15" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
     </row>
     <row r="46" spans="1:27" ht="14.4" x14ac:dyDescent="0.3">
@@ -6556,31 +6562,31 @@
         <v>2020</v>
       </c>
       <c r="C46" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="D46" s="4" t="s">
         <v>226</v>
       </c>
-      <c r="D46" s="4" t="s">
+      <c r="E46" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="F46" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="G46" s="2" t="s">
         <v>227</v>
-      </c>
-      <c r="E46" s="9" t="s">
-        <v>212</v>
-      </c>
-      <c r="F46" s="12" t="s">
-        <v>221</v>
-      </c>
-      <c r="G46" s="2" t="s">
-        <v>228</v>
       </c>
       <c r="H46" s="3">
         <v>74960.2</v>
       </c>
       <c r="I46" s="12" t="s">
+        <v>228</v>
+      </c>
+      <c r="J46" s="12" t="s">
         <v>229</v>
       </c>
-      <c r="J46" s="12" t="s">
-        <v>230</v>
-      </c>
       <c r="K46" s="12" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="L46" s="12"/>
       <c r="M46" s="12"/>
@@ -6612,7 +6618,7 @@
         <v>32</v>
       </c>
       <c r="AA46" s="15" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
     </row>
     <row r="47" spans="1:27" ht="14.4" x14ac:dyDescent="0.3">
@@ -6623,31 +6629,31 @@
         <v>26</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E47" s="9" t="s">
         <v>35</v>
       </c>
       <c r="F47" s="9" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H47" s="3">
         <v>74536</v>
       </c>
       <c r="I47" s="12" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="J47" s="12" t="s">
+        <v>232</v>
+      </c>
+      <c r="K47" s="12" t="s">
         <v>233</v>
       </c>
-      <c r="K47" s="12" t="s">
-        <v>234</v>
-      </c>
       <c r="L47" s="12" t="s">
-        <v>235</v>
+        <v>438</v>
       </c>
       <c r="M47" s="12" t="s">
         <v>41</v>
@@ -6680,7 +6686,7 @@
         <v>32</v>
       </c>
       <c r="AA47" s="15" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
     </row>
     <row r="48" spans="1:27" ht="14.4" x14ac:dyDescent="0.3">
@@ -6691,22 +6697,22 @@
         <v>26</v>
       </c>
       <c r="D48" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="E48" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="F48" s="12" t="s">
         <v>236</v>
       </c>
-      <c r="E48" s="9" t="s">
+      <c r="G48" s="2" t="s">
         <v>237</v>
-      </c>
-      <c r="F48" s="12" t="s">
-        <v>238</v>
-      </c>
-      <c r="G48" s="2" t="s">
-        <v>239</v>
       </c>
       <c r="H48" s="3">
         <v>75000.5</v>
       </c>
       <c r="I48" s="12" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="J48" s="15"/>
       <c r="K48" s="12"/>
@@ -6740,7 +6746,7 @@
         <v>32</v>
       </c>
       <c r="AA48" s="15" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
     </row>
     <row r="49" spans="1:27" ht="14.4" x14ac:dyDescent="0.3">
@@ -6751,22 +6757,22 @@
         <v>26</v>
       </c>
       <c r="D49" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="E49" s="9" t="s">
+        <v>240</v>
+      </c>
+      <c r="F49" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="G49" s="2" t="s">
         <v>241</v>
-      </c>
-      <c r="E49" s="9" t="s">
-        <v>242</v>
-      </c>
-      <c r="F49" s="12" t="s">
-        <v>160</v>
-      </c>
-      <c r="G49" s="2" t="s">
-        <v>243</v>
       </c>
       <c r="H49" s="3">
         <v>50000</v>
       </c>
       <c r="I49" s="12" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="J49" s="15"/>
       <c r="K49" s="12"/>
@@ -6800,7 +6806,7 @@
         <v>32</v>
       </c>
       <c r="AA49" s="15" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
     </row>
     <row r="50" spans="1:27" ht="14.4" x14ac:dyDescent="0.3">
@@ -6811,16 +6817,16 @@
         <v>26</v>
       </c>
       <c r="D50" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="E50" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="F50" s="12" t="s">
+        <v>244</v>
+      </c>
+      <c r="G50" s="2" t="s">
         <v>245</v>
-      </c>
-      <c r="E50" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="F50" s="12" t="s">
-        <v>246</v>
-      </c>
-      <c r="G50" s="2" t="s">
-        <v>247</v>
       </c>
       <c r="H50" s="3">
         <v>75000</v>
@@ -6858,7 +6864,7 @@
         <v>33</v>
       </c>
       <c r="AA50" s="15" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
     </row>
     <row r="51" spans="1:27" ht="14.4" x14ac:dyDescent="0.3">
@@ -6869,28 +6875,28 @@
         <v>26</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="E51" s="9" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="F51" s="12" t="s">
         <v>41</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="H51" s="3">
         <v>75000</v>
       </c>
       <c r="I51" s="12" t="s">
+        <v>249</v>
+      </c>
+      <c r="J51" s="15" t="s">
+        <v>250</v>
+      </c>
+      <c r="K51" s="12" t="s">
         <v>251</v>
-      </c>
-      <c r="J51" s="15" t="s">
-        <v>252</v>
-      </c>
-      <c r="K51" s="12" t="s">
-        <v>253</v>
       </c>
       <c r="L51" s="12"/>
       <c r="M51" s="12"/>
@@ -6922,7 +6928,7 @@
         <v>32</v>
       </c>
       <c r="AA51" s="15" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
     </row>
     <row r="52" spans="1:27" ht="14.4" x14ac:dyDescent="0.3">
@@ -6933,31 +6939,31 @@
         <v>26</v>
       </c>
       <c r="D52" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="E52" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="F52" s="12" t="s">
+        <v>253</v>
+      </c>
+      <c r="G52" s="2" t="s">
         <v>254</v>
-      </c>
-      <c r="E52" s="9" t="s">
-        <v>188</v>
-      </c>
-      <c r="F52" s="12" t="s">
-        <v>255</v>
-      </c>
-      <c r="G52" s="2" t="s">
-        <v>256</v>
       </c>
       <c r="H52" s="3">
         <v>51324</v>
       </c>
       <c r="I52" s="15" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="J52" s="12" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="K52" s="12" t="s">
         <v>40</v>
       </c>
       <c r="L52" s="12" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="M52" s="12"/>
       <c r="N52" s="12"/>
@@ -6988,7 +6994,7 @@
         <v>33</v>
       </c>
       <c r="AA52" s="15" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
     </row>
     <row r="53" spans="1:27" ht="14.4" x14ac:dyDescent="0.3">
@@ -6999,28 +7005,28 @@
         <v>26</v>
       </c>
       <c r="D53" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="E53" s="9" t="s">
+        <v>259</v>
+      </c>
+      <c r="F53" s="12" t="s">
         <v>260</v>
       </c>
-      <c r="E53" s="9" t="s">
+      <c r="G53" s="2" t="s">
         <v>261</v>
-      </c>
-      <c r="F53" s="12" t="s">
-        <v>262</v>
-      </c>
-      <c r="G53" s="2" t="s">
-        <v>263</v>
       </c>
       <c r="H53" s="3">
         <v>74953</v>
       </c>
       <c r="I53" s="12" t="s">
+        <v>262</v>
+      </c>
+      <c r="J53" s="15" t="s">
+        <v>263</v>
+      </c>
+      <c r="K53" s="12" t="s">
         <v>264</v>
-      </c>
-      <c r="J53" s="15" t="s">
-        <v>265</v>
-      </c>
-      <c r="K53" s="12" t="s">
-        <v>266</v>
       </c>
       <c r="L53" s="12"/>
       <c r="M53" s="12"/>
@@ -7061,28 +7067,28 @@
         <v>26</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E54" s="9" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F54" s="12" t="s">
         <v>28</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="H54" s="3">
         <v>60346</v>
       </c>
       <c r="I54" s="12" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="J54" s="12" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="K54" s="12" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="L54" s="15"/>
       <c r="M54" s="12"/>
@@ -7123,25 +7129,25 @@
         <v>26</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="E55" s="9" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="F55" s="9" t="s">
         <v>41</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="H55" s="3">
         <v>66100</v>
       </c>
       <c r="I55" s="12" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="J55" s="12" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="K55" s="12"/>
       <c r="L55" s="12"/>
@@ -7183,31 +7189,31 @@
         <v>26</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="E56" s="9" t="s">
         <v>28</v>
       </c>
       <c r="F56" s="12" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="H56" s="3">
         <v>75000</v>
       </c>
       <c r="I56" s="12" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="J56" s="12" t="s">
+        <v>275</v>
+      </c>
+      <c r="K56" s="12" t="s">
+        <v>276</v>
+      </c>
+      <c r="L56" s="12" t="s">
         <v>277</v>
-      </c>
-      <c r="K56" s="12" t="s">
-        <v>278</v>
-      </c>
-      <c r="L56" s="12" t="s">
-        <v>279</v>
       </c>
       <c r="M56" s="15"/>
       <c r="N56" s="12"/>
@@ -7241,34 +7247,34 @@
     </row>
     <row r="57" spans="1:27" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A57" s="11" t="s">
+        <v>278</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D57" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="E57" s="9" t="s">
         <v>280</v>
       </c>
-      <c r="C57" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D57" s="4" t="s">
+      <c r="F57" s="12" t="s">
         <v>281</v>
       </c>
-      <c r="E57" s="9" t="s">
+      <c r="G57" s="2" t="s">
         <v>282</v>
-      </c>
-      <c r="F57" s="12" t="s">
-        <v>283</v>
-      </c>
-      <c r="G57" s="2" t="s">
-        <v>284</v>
       </c>
       <c r="H57" s="3">
         <v>30000</v>
       </c>
       <c r="I57" s="12" t="s">
+        <v>283</v>
+      </c>
+      <c r="J57" s="12" t="s">
+        <v>284</v>
+      </c>
+      <c r="K57" s="12" t="s">
         <v>285</v>
-      </c>
-      <c r="J57" s="12" t="s">
-        <v>286</v>
-      </c>
-      <c r="K57" s="12" t="s">
-        <v>287</v>
       </c>
       <c r="L57" s="15"/>
       <c r="M57" s="12"/>
@@ -7303,34 +7309,34 @@
     </row>
     <row r="58" spans="1:27" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A58" s="11" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D58" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="E58" s="9" t="s">
+        <v>240</v>
+      </c>
+      <c r="F58" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="G58" s="2" t="s">
         <v>288</v>
-      </c>
-      <c r="E58" s="9" t="s">
-        <v>242</v>
-      </c>
-      <c r="F58" s="12" t="s">
-        <v>317</v>
-      </c>
-      <c r="G58" s="2" t="s">
-        <v>290</v>
       </c>
       <c r="H58" s="3">
         <v>49937</v>
       </c>
       <c r="I58" s="12" t="s">
+        <v>289</v>
+      </c>
+      <c r="J58" s="12" t="s">
+        <v>290</v>
+      </c>
+      <c r="K58" s="12" t="s">
         <v>291</v>
-      </c>
-      <c r="J58" s="12" t="s">
-        <v>292</v>
-      </c>
-      <c r="K58" s="12" t="s">
-        <v>293</v>
       </c>
       <c r="L58" s="15"/>
       <c r="M58" s="12"/>
@@ -7365,31 +7371,31 @@
     </row>
     <row r="59" spans="1:27" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A59" s="11" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D59" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="E59" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="F59" s="12" t="s">
+        <v>293</v>
+      </c>
+      <c r="G59" s="2" t="s">
         <v>294</v>
-      </c>
-      <c r="E59" s="9" t="s">
-        <v>221</v>
-      </c>
-      <c r="F59" s="12" t="s">
-        <v>295</v>
-      </c>
-      <c r="G59" s="2" t="s">
-        <v>296</v>
       </c>
       <c r="H59" s="3">
         <v>31998.45</v>
       </c>
       <c r="I59" s="12" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="J59" s="15" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="K59" s="12"/>
       <c r="L59" s="12"/>
@@ -7425,34 +7431,34 @@
     </row>
     <row r="60" spans="1:27" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A60" s="11" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D60" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="E60" s="9" t="s">
+        <v>298</v>
+      </c>
+      <c r="F60" s="9" t="s">
         <v>299</v>
       </c>
-      <c r="E60" s="9" t="s">
+      <c r="G60" s="2" t="s">
         <v>300</v>
-      </c>
-      <c r="F60" s="9" t="s">
-        <v>301</v>
-      </c>
-      <c r="G60" s="2" t="s">
-        <v>302</v>
       </c>
       <c r="H60" s="3">
         <v>47149</v>
       </c>
       <c r="I60" s="12" t="s">
+        <v>301</v>
+      </c>
+      <c r="J60" s="12" t="s">
+        <v>302</v>
+      </c>
+      <c r="K60" s="12" t="s">
         <v>303</v>
-      </c>
-      <c r="J60" s="12" t="s">
-        <v>304</v>
-      </c>
-      <c r="K60" s="12" t="s">
-        <v>305</v>
       </c>
       <c r="L60" s="12"/>
       <c r="M60" s="12"/>
@@ -7487,28 +7493,28 @@
     </row>
     <row r="61" spans="1:27" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A61" s="11" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="E61" s="9" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="F61" s="12" t="s">
         <v>40</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="H61" s="3">
         <v>60000</v>
       </c>
       <c r="I61" s="12" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="J61" s="15"/>
       <c r="K61" s="12"/>
@@ -7545,31 +7551,31 @@
     </row>
     <row r="62" spans="1:27" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A62" s="11" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D62" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="E62" s="9" t="s">
+        <v>309</v>
+      </c>
+      <c r="F62" s="12" t="s">
         <v>310</v>
       </c>
-      <c r="E62" s="9" t="s">
+      <c r="G62" s="2" t="s">
         <v>311</v>
-      </c>
-      <c r="F62" s="12" t="s">
-        <v>312</v>
-      </c>
-      <c r="G62" s="2" t="s">
-        <v>313</v>
       </c>
       <c r="H62" s="3">
         <v>32000</v>
       </c>
       <c r="I62" s="12" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="J62" s="12" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="K62" s="15"/>
       <c r="L62" s="12"/>
@@ -7605,28 +7611,28 @@
     </row>
     <row r="63" spans="1:27" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A63" s="11" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D63" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="E63" s="9" t="s">
+        <v>314</v>
+      </c>
+      <c r="F63" s="12" t="s">
         <v>315</v>
       </c>
-      <c r="E63" s="9" t="s">
+      <c r="G63" s="2" t="s">
         <v>316</v>
-      </c>
-      <c r="F63" s="12" t="s">
-        <v>317</v>
-      </c>
-      <c r="G63" s="2" t="s">
-        <v>318</v>
       </c>
       <c r="H63" s="3">
         <v>45004</v>
       </c>
       <c r="I63" s="12" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="J63" s="15"/>
       <c r="K63" s="12"/>
@@ -7663,28 +7669,28 @@
     </row>
     <row r="64" spans="1:27" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A64" s="11" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D64" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="E64" s="9" t="s">
+        <v>319</v>
+      </c>
+      <c r="F64" s="9" t="s">
         <v>320</v>
       </c>
-      <c r="E64" s="9" t="s">
+      <c r="G64" s="2" t="s">
         <v>321</v>
-      </c>
-      <c r="F64" s="9" t="s">
-        <v>322</v>
-      </c>
-      <c r="G64" s="2" t="s">
-        <v>323</v>
       </c>
       <c r="H64" s="3">
         <v>15000</v>
       </c>
       <c r="I64" s="12" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="J64" s="12"/>
       <c r="K64" s="12"/>
@@ -7721,31 +7727,31 @@
     </row>
     <row r="65" spans="1:27" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A65" s="11" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="E65" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F65" s="9" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="H65" s="3">
         <v>47050</v>
       </c>
       <c r="I65" s="12" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="J65" s="12" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="K65" s="12"/>
       <c r="L65" s="12"/>
@@ -7781,34 +7787,34 @@
     </row>
     <row r="66" spans="1:27" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A66" s="11" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D66" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="E66" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="F66" s="9" t="s">
+        <v>326</v>
+      </c>
+      <c r="G66" s="2" t="s">
         <v>327</v>
-      </c>
-      <c r="E66" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="F66" s="9" t="s">
-        <v>328</v>
-      </c>
-      <c r="G66" s="2" t="s">
-        <v>329</v>
       </c>
       <c r="H66" s="3">
         <v>35000</v>
       </c>
       <c r="I66" s="12" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="J66" s="12" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="K66" s="12" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="L66" s="12"/>
       <c r="M66" s="12"/>
@@ -7843,31 +7849,31 @@
     </row>
     <row r="67" spans="1:27" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A67" s="11" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="E67" s="9" t="s">
         <v>40</v>
       </c>
       <c r="F67" s="12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="H67" s="3">
         <v>10000</v>
       </c>
       <c r="I67" s="12" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="J67" s="12" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="K67" s="15"/>
       <c r="L67" s="12"/>
@@ -7903,31 +7909,31 @@
     </row>
     <row r="68" spans="1:27" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A68" s="11" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D68" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="E68" s="9" t="s">
+        <v>363</v>
+      </c>
+      <c r="F68" s="12" t="s">
         <v>335</v>
       </c>
-      <c r="E68" s="9" t="s">
-        <v>365</v>
-      </c>
-      <c r="F68" s="12" t="s">
-        <v>337</v>
-      </c>
       <c r="G68" s="2" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="H68" s="3">
         <v>60000</v>
       </c>
       <c r="I68" s="12" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="J68" s="15" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="K68" s="15"/>
       <c r="L68" s="12"/>
@@ -7963,28 +7969,28 @@
     </row>
     <row r="69" spans="1:27" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A69" s="11" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D69" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="E69" s="9" t="s">
+        <v>809</v>
+      </c>
+      <c r="F69" s="12" t="s">
+        <v>244</v>
+      </c>
+      <c r="G69" s="2" t="s">
         <v>339</v>
-      </c>
-      <c r="E69" s="9" t="s">
-        <v>811</v>
-      </c>
-      <c r="F69" s="12" t="s">
-        <v>246</v>
-      </c>
-      <c r="G69" s="2" t="s">
-        <v>341</v>
       </c>
       <c r="H69" s="3">
         <v>50000</v>
       </c>
       <c r="I69" s="12" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="J69" s="15"/>
       <c r="K69" s="12"/>
@@ -8021,34 +8027,34 @@
     </row>
     <row r="70" spans="1:27" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A70" s="11" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="E70" s="9" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F70" s="12" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="H70" s="3">
         <v>60000</v>
       </c>
       <c r="I70" s="12" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="J70" s="12" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="K70" s="12" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="L70" s="15"/>
       <c r="M70" s="12"/>
@@ -8083,34 +8089,34 @@
     </row>
     <row r="71" spans="1:27" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A71" s="11" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D71" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="E71" s="9" t="s">
+        <v>345</v>
+      </c>
+      <c r="F71" s="9" t="s">
         <v>346</v>
       </c>
-      <c r="E71" s="9" t="s">
+      <c r="G71" s="2" t="s">
         <v>347</v>
-      </c>
-      <c r="F71" s="9" t="s">
-        <v>348</v>
-      </c>
-      <c r="G71" s="2" t="s">
-        <v>349</v>
       </c>
       <c r="H71" s="3">
         <v>55000</v>
       </c>
       <c r="I71" s="12" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="J71" s="12" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="K71" s="12" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="L71" s="12"/>
       <c r="M71" s="12"/>
@@ -8145,52 +8151,52 @@
     </row>
     <row r="72" spans="1:27" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A72" s="11" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D72" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="E72" s="9" t="s">
+        <v>351</v>
+      </c>
+      <c r="F72" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="G72" s="2" t="s">
         <v>352</v>
-      </c>
-      <c r="E72" s="9" t="s">
-        <v>353</v>
-      </c>
-      <c r="F72" s="9" t="s">
-        <v>212</v>
-      </c>
-      <c r="G72" s="2" t="s">
-        <v>354</v>
       </c>
       <c r="H72" s="3">
         <v>48634</v>
       </c>
       <c r="I72" s="12" t="s">
+        <v>353</v>
+      </c>
+      <c r="J72" s="12" t="s">
+        <v>354</v>
+      </c>
+      <c r="K72" s="12" t="s">
+        <v>326</v>
+      </c>
+      <c r="L72" s="12" t="s">
         <v>355</v>
       </c>
-      <c r="J72" s="12" t="s">
+      <c r="M72" s="12" t="s">
+        <v>209</v>
+      </c>
+      <c r="N72" s="12" t="s">
         <v>356</v>
       </c>
-      <c r="K72" s="12" t="s">
-        <v>328</v>
-      </c>
-      <c r="L72" s="12" t="s">
+      <c r="O72" s="12" t="s">
         <v>357</v>
       </c>
-      <c r="M72" s="12" t="s">
-        <v>210</v>
-      </c>
-      <c r="N72" s="12" t="s">
+      <c r="P72" s="12" t="s">
         <v>358</v>
       </c>
-      <c r="O72" s="12" t="s">
-        <v>359</v>
-      </c>
-      <c r="P72" s="12" t="s">
-        <v>360</v>
-      </c>
       <c r="Q72" s="12" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="R72" s="12"/>
       <c r="S72" s="12"/>
@@ -8219,31 +8225,31 @@
     </row>
     <row r="73" spans="1:27" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A73" s="11" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="E73" s="9" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="F73" s="9" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="H73" s="3">
         <v>49460</v>
       </c>
       <c r="I73" s="12" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="J73" s="12" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="K73" s="12"/>
       <c r="L73" s="12"/>
@@ -8285,31 +8291,31 @@
         <v>26</v>
       </c>
       <c r="D74" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="E74" s="9" t="s">
+        <v>362</v>
+      </c>
+      <c r="F74" s="12" t="s">
         <v>363</v>
       </c>
-      <c r="E74" s="9" t="s">
+      <c r="G74" s="2" t="s">
         <v>364</v>
-      </c>
-      <c r="F74" s="12" t="s">
-        <v>365</v>
-      </c>
-      <c r="G74" s="2" t="s">
-        <v>366</v>
       </c>
       <c r="H74" s="3">
         <v>75000</v>
       </c>
       <c r="I74" s="12" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="J74" s="12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K74" s="12" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="L74" s="12" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="M74" s="15"/>
       <c r="N74" s="12"/>
@@ -8349,31 +8355,31 @@
         <v>26</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="E75" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F75" s="12" t="s">
         <v>28</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="H75" s="3">
         <v>75000</v>
       </c>
       <c r="I75" s="12" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="J75" s="12" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="K75" s="12" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="L75" s="12" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="M75" s="15"/>
       <c r="N75" s="12"/>
@@ -8413,31 +8419,31 @@
         <v>26</v>
       </c>
       <c r="D76" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="E76" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="F76" s="12" t="s">
         <v>374</v>
       </c>
-      <c r="E76" s="9" t="s">
-        <v>153</v>
-      </c>
-      <c r="F76" s="12" t="s">
-        <v>376</v>
-      </c>
       <c r="G76" s="2" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="H76" s="3">
         <v>75000</v>
       </c>
       <c r="I76" s="12" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="J76" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="K76" s="12" t="s">
         <v>157</v>
       </c>
-      <c r="K76" s="12" t="s">
-        <v>158</v>
-      </c>
       <c r="L76" s="12" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="M76" s="15"/>
       <c r="N76" s="12"/>
@@ -8477,29 +8483,29 @@
         <v>26</v>
       </c>
       <c r="D77" s="4" t="s">
+        <v>378</v>
+      </c>
+      <c r="E77" s="9" t="s">
+        <v>379</v>
+      </c>
+      <c r="F77" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="G77" s="2" t="s">
         <v>380</v>
-      </c>
-      <c r="E77" s="9" t="s">
-        <v>381</v>
-      </c>
-      <c r="F77" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="G77" s="2" t="s">
-        <v>382</v>
       </c>
       <c r="H77" s="3">
         <v>75000</v>
       </c>
       <c r="I77" s="12" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="J77" s="12" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="K77" s="15"/>
       <c r="L77" s="12" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="M77" s="12"/>
       <c r="N77" s="12"/>
@@ -8539,28 +8545,28 @@
         <v>26</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="E78" s="9" t="s">
         <v>40</v>
       </c>
       <c r="F78" s="12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="H78" s="3">
         <v>73926</v>
       </c>
       <c r="I78" s="12" t="s">
+        <v>386</v>
+      </c>
+      <c r="J78" s="12" t="s">
+        <v>387</v>
+      </c>
+      <c r="K78" s="12" t="s">
         <v>388</v>
-      </c>
-      <c r="J78" s="12" t="s">
-        <v>389</v>
-      </c>
-      <c r="K78" s="12" t="s">
-        <v>390</v>
       </c>
       <c r="L78" s="15"/>
       <c r="M78" s="12"/>
@@ -8601,32 +8607,32 @@
         <v>26</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="E79" s="9" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F79" s="12" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="H79" s="3">
         <v>75000</v>
       </c>
       <c r="I79" s="12" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="J79" s="12" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="K79" s="15"/>
       <c r="L79" s="12" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="M79" s="12" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="N79" s="12"/>
       <c r="O79" s="12"/>
@@ -8665,28 +8671,28 @@
         <v>26</v>
       </c>
       <c r="D80" s="4" t="s">
+        <v>391</v>
+      </c>
+      <c r="E80" s="9" t="s">
+        <v>392</v>
+      </c>
+      <c r="F80" s="12" t="s">
         <v>393</v>
       </c>
-      <c r="E80" s="9" t="s">
+      <c r="G80" s="2" t="s">
         <v>394</v>
-      </c>
-      <c r="F80" s="12" t="s">
-        <v>395</v>
-      </c>
-      <c r="G80" s="2" t="s">
-        <v>396</v>
       </c>
       <c r="H80" s="3">
         <v>74895</v>
       </c>
       <c r="I80" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J80" s="12" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="K80" s="12" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="L80" s="15"/>
       <c r="M80" s="12"/>
@@ -8727,16 +8733,16 @@
         <v>26</v>
       </c>
       <c r="D81" s="4" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="E81" s="12" t="s">
         <v>41</v>
       </c>
       <c r="F81" s="12" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="H81" s="3">
         <v>75000</v>
@@ -8783,22 +8789,22 @@
         <v>26</v>
       </c>
       <c r="D82" s="4" t="s">
+        <v>399</v>
+      </c>
+      <c r="E82" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="F82" s="12" t="s">
+        <v>400</v>
+      </c>
+      <c r="G82" s="2" t="s">
         <v>401</v>
-      </c>
-      <c r="E82" s="9" t="s">
-        <v>197</v>
-      </c>
-      <c r="F82" s="12" t="s">
-        <v>402</v>
-      </c>
-      <c r="G82" s="2" t="s">
-        <v>403</v>
       </c>
       <c r="H82" s="3">
         <v>74086</v>
       </c>
       <c r="I82" s="12" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="J82" s="15"/>
       <c r="K82" s="12"/>
@@ -8841,34 +8847,34 @@
         <v>26</v>
       </c>
       <c r="D83" s="4" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="E83" s="9" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F83" s="12" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="H83" s="3">
         <v>74999.509999999995</v>
       </c>
       <c r="I83" s="12" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="J83" s="12" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="K83" s="12" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="L83" s="12" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="M83" s="12" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="N83" s="15"/>
       <c r="O83" s="12"/>
@@ -8907,16 +8913,16 @@
         <v>26</v>
       </c>
       <c r="D84" s="4" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="E84" s="9" t="s">
+        <v>408</v>
+      </c>
+      <c r="F84" s="12" t="s">
+        <v>211</v>
+      </c>
+      <c r="G84" s="2" t="s">
         <v>410</v>
-      </c>
-      <c r="F84" s="12" t="s">
-        <v>212</v>
-      </c>
-      <c r="G84" s="2" t="s">
-        <v>412</v>
       </c>
       <c r="H84" s="3">
         <v>72088.37</v>
@@ -8925,13 +8931,13 @@
         <v>41</v>
       </c>
       <c r="J84" s="12" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="K84" s="12" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="L84" s="12" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="M84" s="12"/>
       <c r="N84" s="15"/>
@@ -8971,22 +8977,22 @@
         <v>26</v>
       </c>
       <c r="D85" s="4" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="E85" s="9" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F85" s="12" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="H85" s="3">
         <v>75000</v>
       </c>
       <c r="I85" s="12" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="J85" s="15"/>
       <c r="K85" s="12"/>
@@ -9029,25 +9035,25 @@
         <v>26</v>
       </c>
       <c r="D86" s="4" t="s">
+        <v>416</v>
+      </c>
+      <c r="E86" s="9" t="s">
+        <v>417</v>
+      </c>
+      <c r="F86" s="12" t="s">
         <v>418</v>
       </c>
-      <c r="E86" s="9" t="s">
+      <c r="G86" s="2" t="s">
         <v>419</v>
-      </c>
-      <c r="F86" s="12" t="s">
-        <v>420</v>
-      </c>
-      <c r="G86" s="2" t="s">
-        <v>421</v>
       </c>
       <c r="H86" s="3">
         <v>74836</v>
       </c>
       <c r="I86" s="12" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J86" s="12" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="K86" s="15"/>
       <c r="L86" s="12"/>
@@ -9157,7 +9163,7 @@
         <v>28</v>
       </c>
       <c r="F2" s="80" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="G2" s="23">
         <v>49957</v>
@@ -9295,7 +9301,7 @@
         <v>58</v>
       </c>
       <c r="F8" s="80" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G8" s="23">
         <v>53032</v>
@@ -9308,13 +9314,13 @@
       <c r="B9" s="24"/>
       <c r="C9" s="24"/>
       <c r="D9" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="E9" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="E9" s="24" t="s">
+      <c r="F9" s="81" t="s">
         <v>62</v>
-      </c>
-      <c r="F9" s="81" t="s">
-        <v>63</v>
       </c>
       <c r="G9" s="26">
         <v>149671</v>
@@ -9328,16 +9334,16 @@
         <v>8</v>
       </c>
       <c r="C10" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="D10" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="D10" s="20" t="s">
+      <c r="E10" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="E10" s="22" t="s">
-        <v>67</v>
-      </c>
       <c r="F10" s="80" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G10" s="23">
         <v>58356</v>
@@ -9351,16 +9357,16 @@
         <v>9</v>
       </c>
       <c r="C11" s="22" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D11" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E11" s="22" t="s">
         <v>28</v>
       </c>
       <c r="F11" s="80" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G11" s="23">
         <v>50209</v>
@@ -9374,16 +9380,16 @@
         <v>10</v>
       </c>
       <c r="C12" s="22" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D12" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="E12" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="E12" s="22" t="s">
+      <c r="F12" s="80" t="s">
         <v>75</v>
-      </c>
-      <c r="F12" s="80" t="s">
-        <v>76</v>
       </c>
       <c r="G12" s="23">
         <v>113958</v>
@@ -9397,16 +9403,16 @@
         <v>11</v>
       </c>
       <c r="C13" s="22" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D13" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="E13" s="22" t="s">
         <v>79</v>
       </c>
-      <c r="E13" s="22" t="s">
+      <c r="F13" s="80" t="s">
         <v>80</v>
-      </c>
-      <c r="F13" s="80" t="s">
-        <v>81</v>
       </c>
       <c r="G13" s="23">
         <v>69750</v>
@@ -9420,16 +9426,16 @@
         <v>12</v>
       </c>
       <c r="C14" s="22" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D14" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="E14" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="E14" s="22" t="s">
+      <c r="F14" s="80" t="s">
         <v>85</v>
-      </c>
-      <c r="F14" s="80" t="s">
-        <v>86</v>
       </c>
       <c r="G14" s="23">
         <v>65000</v>
@@ -9446,13 +9452,13 @@
         <v>26</v>
       </c>
       <c r="D15" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="E15" s="22" t="s">
         <v>88</v>
       </c>
-      <c r="E15" s="22" t="s">
-        <v>89</v>
-      </c>
       <c r="F15" s="80" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G15" s="23">
         <v>49976</v>
@@ -9469,13 +9475,13 @@
         <v>26</v>
       </c>
       <c r="D16" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="E16" s="22" t="s">
         <v>92</v>
       </c>
-      <c r="E16" s="22" t="s">
+      <c r="F16" s="80" t="s">
         <v>93</v>
-      </c>
-      <c r="F16" s="80" t="s">
-        <v>94</v>
       </c>
       <c r="G16" s="23">
         <v>90079</v>
@@ -9489,16 +9495,16 @@
         <v>15</v>
       </c>
       <c r="C17" s="22" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D17" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="E17" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="F17" s="80" t="s">
         <v>96</v>
-      </c>
-      <c r="E17" s="22" t="s">
-        <v>67</v>
-      </c>
-      <c r="F17" s="80" t="s">
-        <v>97</v>
       </c>
       <c r="G17" s="23">
         <v>86862</v>
@@ -9512,16 +9518,16 @@
         <v>16</v>
       </c>
       <c r="C18" s="22" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D18" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="E18" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="E18" s="22" t="s">
+      <c r="F18" s="80" t="s">
         <v>99</v>
-      </c>
-      <c r="F18" s="80" t="s">
-        <v>100</v>
       </c>
       <c r="G18" s="23">
         <v>34250</v>
@@ -9538,13 +9544,13 @@
         <v>26</v>
       </c>
       <c r="D19" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="E19" s="22" t="s">
         <v>101</v>
       </c>
-      <c r="E19" s="22" t="s">
-        <v>102</v>
-      </c>
       <c r="F19" s="80" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G19" s="23">
         <v>46464</v>
@@ -9561,13 +9567,13 @@
         <v>26</v>
       </c>
       <c r="D20" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="E20" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="E20" s="22" t="s">
-        <v>110</v>
-      </c>
       <c r="F20" s="80" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G20" s="23">
         <v>74400</v>
@@ -9584,13 +9590,13 @@
         <v>26</v>
       </c>
       <c r="D21" s="20" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E21" s="22" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F21" s="80" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G21" s="27">
         <v>67420</v>
@@ -9607,13 +9613,13 @@
         <v>26</v>
       </c>
       <c r="D22" s="20" t="s">
+        <v>119</v>
+      </c>
+      <c r="E22" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="F22" s="80" t="s">
         <v>120</v>
-      </c>
-      <c r="E22" s="22" t="s">
-        <v>103</v>
-      </c>
-      <c r="F22" s="80" t="s">
-        <v>121</v>
       </c>
       <c r="G22" s="23">
         <v>88820</v>
@@ -9630,13 +9636,13 @@
         <v>26</v>
       </c>
       <c r="D23" s="20" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E23" s="22" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="F23" s="80" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G23" s="23">
         <v>203850</v>
@@ -9653,13 +9659,13 @@
         <v>26</v>
       </c>
       <c r="D24" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="E24" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="F24" s="80" t="s">
         <v>127</v>
-      </c>
-      <c r="E24" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="F24" s="80" t="s">
-        <v>128</v>
       </c>
       <c r="G24" s="23">
         <v>52224</v>
@@ -9676,13 +9682,13 @@
         <v>26</v>
       </c>
       <c r="D25" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="E25" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="F25" s="80" t="s">
         <v>130</v>
-      </c>
-      <c r="E25" s="22" t="s">
-        <v>85</v>
-      </c>
-      <c r="F25" s="80" t="s">
-        <v>131</v>
       </c>
       <c r="G25" s="23">
         <v>71000</v>
@@ -9699,13 +9705,13 @@
         <v>26</v>
       </c>
       <c r="D26" s="20" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E26" s="22" t="s">
         <v>55</v>
       </c>
       <c r="F26" s="80" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G26" s="23">
         <v>90185</v>
@@ -9722,13 +9728,13 @@
         <v>26</v>
       </c>
       <c r="D27" s="20" t="s">
+        <v>133</v>
+      </c>
+      <c r="E27" s="22" t="s">
         <v>134</v>
       </c>
-      <c r="E27" s="22" t="s">
+      <c r="F27" s="80" t="s">
         <v>135</v>
-      </c>
-      <c r="F27" s="80" t="s">
-        <v>136</v>
       </c>
       <c r="G27" s="23">
         <v>75000</v>
@@ -9745,13 +9751,13 @@
         <v>26</v>
       </c>
       <c r="D28" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="E28" s="22" t="s">
         <v>137</v>
       </c>
-      <c r="E28" s="22" t="s">
+      <c r="F28" s="80" t="s">
         <v>138</v>
-      </c>
-      <c r="F28" s="80" t="s">
-        <v>139</v>
       </c>
       <c r="G28" s="23">
         <v>57093</v>
@@ -9768,13 +9774,13 @@
         <v>26</v>
       </c>
       <c r="D29" s="20" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E29" s="22" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F29" s="80" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G29" s="27">
         <v>76360</v>
@@ -9791,13 +9797,13 @@
         <v>26</v>
       </c>
       <c r="D30" s="20" t="s">
+        <v>141</v>
+      </c>
+      <c r="E30" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="F30" s="80" t="s">
         <v>142</v>
-      </c>
-      <c r="E30" s="22" t="s">
-        <v>102</v>
-      </c>
-      <c r="F30" s="80" t="s">
-        <v>143</v>
       </c>
       <c r="G30" s="23">
         <v>75000</v>
@@ -9814,13 +9820,13 @@
         <v>26</v>
       </c>
       <c r="D31" s="29" t="s">
+        <v>144</v>
+      </c>
+      <c r="E31" s="28" t="s">
         <v>145</v>
       </c>
-      <c r="E31" s="28" t="s">
-        <v>146</v>
-      </c>
       <c r="F31" s="82" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G31" s="30">
         <v>75000</v>
@@ -9837,13 +9843,13 @@
         <v>26</v>
       </c>
       <c r="D32" s="29" t="s">
+        <v>151</v>
+      </c>
+      <c r="E32" s="28" t="s">
         <v>152</v>
       </c>
-      <c r="E32" s="28" t="s">
+      <c r="F32" s="82" t="s">
         <v>153</v>
-      </c>
-      <c r="F32" s="82" t="s">
-        <v>154</v>
       </c>
       <c r="G32" s="30">
         <v>49953</v>
@@ -9860,13 +9866,13 @@
         <v>26</v>
       </c>
       <c r="D33" s="29" t="s">
+        <v>158</v>
+      </c>
+      <c r="E33" s="28" t="s">
         <v>159</v>
       </c>
-      <c r="E33" s="28" t="s">
+      <c r="F33" s="82" t="s">
         <v>160</v>
-      </c>
-      <c r="F33" s="82" t="s">
-        <v>161</v>
       </c>
       <c r="G33" s="31">
         <v>69211</v>
@@ -9883,13 +9889,13 @@
         <v>26</v>
       </c>
       <c r="D34" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="E34" s="28" t="s">
         <v>163</v>
       </c>
-      <c r="E34" s="28" t="s">
+      <c r="F34" s="82" t="s">
         <v>164</v>
-      </c>
-      <c r="F34" s="82" t="s">
-        <v>165</v>
       </c>
       <c r="G34" s="30">
         <v>50000</v>
@@ -9906,13 +9912,13 @@
         <v>26</v>
       </c>
       <c r="D35" s="29" t="s">
+        <v>166</v>
+      </c>
+      <c r="E35" s="28" t="s">
         <v>167</v>
       </c>
-      <c r="E35" s="28" t="s">
+      <c r="F35" s="82" t="s">
         <v>168</v>
-      </c>
-      <c r="F35" s="82" t="s">
-        <v>169</v>
       </c>
       <c r="G35" s="30">
         <v>96769</v>
@@ -9929,13 +9935,13 @@
         <v>26</v>
       </c>
       <c r="D36" s="29" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E36" s="28" t="s">
         <v>28</v>
       </c>
       <c r="F36" s="82" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G36" s="31">
         <v>61533</v>
@@ -9952,13 +9958,13 @@
         <v>26</v>
       </c>
       <c r="D37" s="29" t="s">
+        <v>183</v>
+      </c>
+      <c r="E37" s="28" t="s">
         <v>184</v>
       </c>
-      <c r="E37" s="28" t="s">
+      <c r="F37" s="82" t="s">
         <v>185</v>
-      </c>
-      <c r="F37" s="82" t="s">
-        <v>186</v>
       </c>
       <c r="G37" s="30">
         <v>81568</v>
@@ -9975,13 +9981,13 @@
         <v>26</v>
       </c>
       <c r="D38" s="29" t="s">
+        <v>191</v>
+      </c>
+      <c r="E38" s="28" t="s">
+        <v>102</v>
+      </c>
+      <c r="F38" s="82" t="s">
         <v>192</v>
-      </c>
-      <c r="E38" s="28" t="s">
-        <v>103</v>
-      </c>
-      <c r="F38" s="82" t="s">
-        <v>193</v>
       </c>
       <c r="G38" s="30">
         <v>75000</v>
@@ -9998,13 +10004,13 @@
         <v>26</v>
       </c>
       <c r="D39" s="29" t="s">
+        <v>194</v>
+      </c>
+      <c r="E39" s="28" t="s">
         <v>195</v>
       </c>
-      <c r="E39" s="28" t="s">
-        <v>196</v>
-      </c>
       <c r="F39" s="82" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G39" s="30">
         <v>50000</v>
@@ -10021,13 +10027,13 @@
         <v>26</v>
       </c>
       <c r="D40" s="29" t="s">
+        <v>200</v>
+      </c>
+      <c r="E40" s="28" t="s">
         <v>201</v>
       </c>
-      <c r="E40" s="28" t="s">
+      <c r="F40" s="82" t="s">
         <v>202</v>
-      </c>
-      <c r="F40" s="82" t="s">
-        <v>203</v>
       </c>
       <c r="G40" s="30">
         <v>69906</v>
@@ -10044,13 +10050,13 @@
         <v>26</v>
       </c>
       <c r="D41" s="29" t="s">
+        <v>203</v>
+      </c>
+      <c r="E41" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="F41" s="83" t="s">
         <v>204</v>
-      </c>
-      <c r="E41" s="32" t="s">
-        <v>67</v>
-      </c>
-      <c r="F41" s="83" t="s">
-        <v>205</v>
       </c>
       <c r="G41" s="33">
         <v>124516</v>
@@ -10065,13 +10071,13 @@
         <v>26</v>
       </c>
       <c r="D42" s="35" t="s">
+        <v>207</v>
+      </c>
+      <c r="E42" s="84" t="s">
+        <v>145</v>
+      </c>
+      <c r="F42" s="85" t="s">
         <v>208</v>
-      </c>
-      <c r="E42" s="84" t="s">
-        <v>146</v>
-      </c>
-      <c r="F42" s="85" t="s">
-        <v>209</v>
       </c>
       <c r="G42" s="36">
         <v>74957</v>
@@ -10086,13 +10092,13 @@
         <v>26</v>
       </c>
       <c r="D43" s="38" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E43" s="37" t="s">
         <v>46</v>
       </c>
       <c r="F43" s="86" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G43" s="39">
         <v>70548.34</v>
@@ -10105,13 +10111,13 @@
       <c r="B44" s="35"/>
       <c r="C44" s="34"/>
       <c r="D44" s="35" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E44" s="87" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="F44" s="85" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G44" s="36">
         <v>74536</v>
@@ -10124,13 +10130,13 @@
       <c r="B45" s="38"/>
       <c r="C45" s="37"/>
       <c r="D45" s="38" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E45" s="37" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F45" s="86" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G45" s="40">
         <v>75000.100000000006</v>
@@ -10143,13 +10149,13 @@
       <c r="B46" s="35"/>
       <c r="C46" s="34"/>
       <c r="D46" s="35" t="s">
+        <v>230</v>
+      </c>
+      <c r="E46" s="87" t="s">
+        <v>423</v>
+      </c>
+      <c r="F46" s="85" t="s">
         <v>231</v>
-      </c>
-      <c r="E46" s="87" t="s">
-        <v>425</v>
-      </c>
-      <c r="F46" s="85" t="s">
-        <v>232</v>
       </c>
       <c r="G46" s="36">
         <v>74536</v>
@@ -10162,13 +10168,13 @@
       <c r="B47" s="38"/>
       <c r="C47" s="37"/>
       <c r="D47" s="38" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E47" s="37" t="s">
+        <v>235</v>
+      </c>
+      <c r="F47" s="86" t="s">
         <v>237</v>
-      </c>
-      <c r="F47" s="86" t="s">
-        <v>239</v>
       </c>
       <c r="G47" s="40">
         <v>75000.5</v>
@@ -10181,13 +10187,13 @@
       <c r="B48" s="35"/>
       <c r="C48" s="34"/>
       <c r="D48" s="35" t="s">
+        <v>239</v>
+      </c>
+      <c r="E48" s="84" t="s">
+        <v>240</v>
+      </c>
+      <c r="F48" s="85" t="s">
         <v>241</v>
-      </c>
-      <c r="E48" s="84" t="s">
-        <v>242</v>
-      </c>
-      <c r="F48" s="85" t="s">
-        <v>243</v>
       </c>
       <c r="G48" s="36">
         <v>50000</v>
@@ -10200,13 +10206,13 @@
       <c r="B49" s="38"/>
       <c r="C49" s="37"/>
       <c r="D49" s="38" t="s">
+        <v>243</v>
+      </c>
+      <c r="E49" s="37" t="s">
+        <v>128</v>
+      </c>
+      <c r="F49" s="86" t="s">
         <v>245</v>
-      </c>
-      <c r="E49" s="37" t="s">
-        <v>129</v>
-      </c>
-      <c r="F49" s="86" t="s">
-        <v>247</v>
       </c>
       <c r="G49" s="40">
         <v>75000</v>
@@ -10219,13 +10225,13 @@
       <c r="B50" s="35"/>
       <c r="C50" s="34"/>
       <c r="D50" s="35" t="s">
+        <v>246</v>
+      </c>
+      <c r="E50" s="84" t="s">
+        <v>247</v>
+      </c>
+      <c r="F50" s="85" t="s">
         <v>248</v>
-      </c>
-      <c r="E50" s="84" t="s">
-        <v>249</v>
-      </c>
-      <c r="F50" s="85" t="s">
-        <v>250</v>
       </c>
       <c r="G50" s="41">
         <v>75000</v>
@@ -10238,13 +10244,13 @@
       <c r="B51" s="38"/>
       <c r="C51" s="37"/>
       <c r="D51" s="38" t="s">
+        <v>252</v>
+      </c>
+      <c r="E51" s="37" t="s">
+        <v>187</v>
+      </c>
+      <c r="F51" s="86" t="s">
         <v>254</v>
-      </c>
-      <c r="E51" s="37" t="s">
-        <v>188</v>
-      </c>
-      <c r="F51" s="86" t="s">
-        <v>256</v>
       </c>
       <c r="G51" s="39">
         <v>51324</v>
@@ -10257,13 +10263,13 @@
       <c r="B52" s="35"/>
       <c r="C52" s="34"/>
       <c r="D52" s="35" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="E52" s="88" t="s">
+        <v>259</v>
+      </c>
+      <c r="F52" s="85" t="s">
         <v>261</v>
-      </c>
-      <c r="F52" s="85" t="s">
-        <v>263</v>
       </c>
       <c r="G52" s="36">
         <v>74953</v>
@@ -10276,13 +10282,13 @@
       <c r="B53" s="38"/>
       <c r="C53" s="37"/>
       <c r="D53" s="38" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E53" s="37" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F53" s="86" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G53" s="39">
         <v>60346</v>
@@ -10295,13 +10301,13 @@
       <c r="B54" s="35"/>
       <c r="C54" s="34"/>
       <c r="D54" s="35" t="s">
+        <v>268</v>
+      </c>
+      <c r="E54" s="84" t="s">
+        <v>269</v>
+      </c>
+      <c r="F54" s="85" t="s">
         <v>270</v>
-      </c>
-      <c r="E54" s="84" t="s">
-        <v>271</v>
-      </c>
-      <c r="F54" s="85" t="s">
-        <v>272</v>
       </c>
       <c r="G54" s="36">
         <v>66100</v>
@@ -10314,13 +10320,13 @@
       <c r="B55" s="38"/>
       <c r="C55" s="37"/>
       <c r="D55" s="38" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="E55" s="37" t="s">
         <v>28</v>
       </c>
       <c r="F55" s="86" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="G55" s="40">
         <v>75000</v>
@@ -10328,18 +10334,18 @@
     </row>
     <row r="56" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A56" s="42" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B56" s="43"/>
       <c r="C56" s="44"/>
       <c r="D56" s="43" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="E56" s="37" t="s">
+        <v>280</v>
+      </c>
+      <c r="F56" s="86" t="s">
         <v>282</v>
-      </c>
-      <c r="F56" s="86" t="s">
-        <v>284</v>
       </c>
       <c r="G56" s="40">
         <v>30000</v>
@@ -10347,17 +10353,17 @@
     </row>
     <row r="57" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A57" s="42" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B57" s="45"/>
       <c r="D57" s="46" t="s">
+        <v>286</v>
+      </c>
+      <c r="E57" s="89" t="s">
+        <v>240</v>
+      </c>
+      <c r="F57" s="90" t="s">
         <v>288</v>
-      </c>
-      <c r="E57" s="89" t="s">
-        <v>242</v>
-      </c>
-      <c r="F57" s="90" t="s">
-        <v>290</v>
       </c>
       <c r="G57" s="47">
         <v>49937</v>
@@ -10365,17 +10371,17 @@
     </row>
     <row r="58" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A58" s="42" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B58" s="45"/>
       <c r="D58" s="48" t="s">
+        <v>292</v>
+      </c>
+      <c r="E58" s="91" t="s">
+        <v>220</v>
+      </c>
+      <c r="F58" s="92" t="s">
         <v>294</v>
-      </c>
-      <c r="E58" s="91" t="s">
-        <v>221</v>
-      </c>
-      <c r="F58" s="92" t="s">
-        <v>296</v>
       </c>
       <c r="G58" s="49">
         <v>31998.45</v>
@@ -10383,18 +10389,18 @@
     </row>
     <row r="59" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A59" s="42" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B59" s="43"/>
       <c r="C59" s="44"/>
       <c r="D59" s="46" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="E59" s="93" t="s">
+        <v>298</v>
+      </c>
+      <c r="F59" s="94" t="s">
         <v>300</v>
-      </c>
-      <c r="F59" s="94" t="s">
-        <v>302</v>
       </c>
       <c r="G59" s="49">
         <v>47149</v>
@@ -10402,18 +10408,18 @@
     </row>
     <row r="60" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A60" s="42" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B60" s="43"/>
       <c r="C60" s="44"/>
       <c r="D60" s="48" t="s">
+        <v>304</v>
+      </c>
+      <c r="E60" s="95" t="s">
+        <v>305</v>
+      </c>
+      <c r="F60" s="96" t="s">
         <v>306</v>
-      </c>
-      <c r="E60" s="95" t="s">
-        <v>307</v>
-      </c>
-      <c r="F60" s="96" t="s">
-        <v>308</v>
       </c>
       <c r="G60" s="49">
         <v>60000</v>
@@ -10421,18 +10427,18 @@
     </row>
     <row r="61" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A61" s="50" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B61" s="43"/>
       <c r="C61" s="44"/>
       <c r="D61" s="46" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="E61" s="93" t="s">
+        <v>309</v>
+      </c>
+      <c r="F61" s="94" t="s">
         <v>311</v>
-      </c>
-      <c r="F61" s="94" t="s">
-        <v>313</v>
       </c>
       <c r="G61" s="49">
         <v>32000</v>
@@ -10440,18 +10446,18 @@
     </row>
     <row r="62" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A62" s="42" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B62" s="43"/>
       <c r="C62" s="44"/>
       <c r="D62" s="48" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="E62" s="95" t="s">
+        <v>314</v>
+      </c>
+      <c r="F62" s="96" t="s">
         <v>316</v>
-      </c>
-      <c r="F62" s="96" t="s">
-        <v>318</v>
       </c>
       <c r="G62" s="51">
         <v>45004</v>
@@ -10459,18 +10465,18 @@
     </row>
     <row r="63" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A63" s="50" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B63" s="52"/>
       <c r="C63" s="53"/>
       <c r="D63" s="46" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="E63" s="93" t="s">
+        <v>319</v>
+      </c>
+      <c r="F63" s="94" t="s">
         <v>321</v>
-      </c>
-      <c r="F63" s="94" t="s">
-        <v>323</v>
       </c>
       <c r="G63" s="49">
         <v>15000</v>
@@ -10478,18 +10484,18 @@
     </row>
     <row r="64" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A64" s="42" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B64" s="43"/>
       <c r="C64" s="44"/>
       <c r="D64" s="48" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="E64" s="95" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F64" s="96" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="G64" s="49">
         <v>47050</v>
@@ -10497,18 +10503,18 @@
     </row>
     <row r="65" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A65" s="50" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B65" s="54"/>
       <c r="C65" s="55"/>
       <c r="D65" s="56" t="s">
+        <v>325</v>
+      </c>
+      <c r="E65" s="93" t="s">
+        <v>424</v>
+      </c>
+      <c r="F65" s="94" t="s">
         <v>327</v>
-      </c>
-      <c r="E65" s="93" t="s">
-        <v>426</v>
-      </c>
-      <c r="F65" s="94" t="s">
-        <v>329</v>
       </c>
       <c r="G65" s="51">
         <v>35000</v>
@@ -10516,18 +10522,18 @@
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66" s="42" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B66" s="43"/>
       <c r="C66" s="44"/>
       <c r="D66" s="57" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="E66" s="95" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="F66" s="96" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="G66" s="51">
         <v>10000</v>
@@ -10535,18 +10541,18 @@
     </row>
     <row r="67" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A67" s="42" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B67" s="43"/>
       <c r="C67" s="44"/>
       <c r="D67" s="56" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="E67" s="93" t="s">
+        <v>334</v>
+      </c>
+      <c r="F67" s="94" t="s">
         <v>336</v>
-      </c>
-      <c r="F67" s="94" t="s">
-        <v>338</v>
       </c>
       <c r="G67" s="51">
         <v>60000</v>
@@ -10554,18 +10560,18 @@
     </row>
     <row r="68" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A68" s="58" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B68" s="59"/>
       <c r="C68" s="60"/>
       <c r="D68" s="57" t="s">
+        <v>337</v>
+      </c>
+      <c r="E68" s="95" t="s">
+        <v>338</v>
+      </c>
+      <c r="F68" s="96" t="s">
         <v>339</v>
-      </c>
-      <c r="E68" s="95" t="s">
-        <v>340</v>
-      </c>
-      <c r="F68" s="96" t="s">
-        <v>341</v>
       </c>
       <c r="G68" s="61">
         <v>50000</v>
@@ -10573,18 +10579,18 @@
     </row>
     <row r="69" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A69" s="62" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B69" s="63"/>
       <c r="C69" s="64"/>
       <c r="D69" s="56" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="E69" s="93" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F69" s="94" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="G69" s="65">
         <v>60000</v>
@@ -10592,18 +10598,18 @@
     </row>
     <row r="70" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A70" s="42" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B70" s="43"/>
       <c r="C70" s="44"/>
       <c r="D70" s="66" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="E70" s="97" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="F70" s="98" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="G70" s="67">
         <v>55000</v>
@@ -10611,18 +10617,18 @@
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71" s="68" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B71" s="45"/>
       <c r="C71" s="45"/>
       <c r="D71" s="43" t="s">
+        <v>350</v>
+      </c>
+      <c r="E71" s="99" t="s">
+        <v>427</v>
+      </c>
+      <c r="F71" s="99" t="s">
         <v>352</v>
-      </c>
-      <c r="E71" s="99" t="s">
-        <v>429</v>
-      </c>
-      <c r="F71" s="99" t="s">
-        <v>354</v>
       </c>
       <c r="G71" s="69">
         <v>48634</v>
@@ -10630,18 +10636,18 @@
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72" s="68" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B72" s="45"/>
       <c r="C72" s="45"/>
       <c r="D72" s="43" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="E72" s="99" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="F72" s="94" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="G72" s="65">
         <v>49460</v>
@@ -10649,18 +10655,18 @@
     </row>
     <row r="73" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A73" s="70" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="B73" s="70"/>
       <c r="C73" s="70"/>
       <c r="D73" s="71" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="E73" s="72" t="s">
+        <v>362</v>
+      </c>
+      <c r="F73" s="72" t="s">
         <v>364</v>
-      </c>
-      <c r="F73" s="72" t="s">
-        <v>366</v>
       </c>
       <c r="G73" s="100">
         <v>75000</v>
@@ -10668,18 +10674,18 @@
     </row>
     <row r="74" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A74" s="70" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="B74" s="73"/>
       <c r="C74" s="70"/>
       <c r="D74" s="74" t="s">
+        <v>367</v>
+      </c>
+      <c r="E74" s="75" t="s">
+        <v>88</v>
+      </c>
+      <c r="F74" s="75" t="s">
         <v>369</v>
-      </c>
-      <c r="E74" s="75" t="s">
-        <v>89</v>
-      </c>
-      <c r="F74" s="75" t="s">
-        <v>371</v>
       </c>
       <c r="G74" s="101">
         <v>75000</v>
@@ -10687,18 +10693,18 @@
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75" s="70" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="B75" s="76"/>
       <c r="C75" s="77"/>
       <c r="D75" s="71" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="E75" s="72" t="s">
+        <v>373</v>
+      </c>
+      <c r="F75" s="72" t="s">
         <v>375</v>
-      </c>
-      <c r="F75" s="72" t="s">
-        <v>377</v>
       </c>
       <c r="G75" s="100">
         <v>75000</v>
@@ -10706,18 +10712,18 @@
     </row>
     <row r="76" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A76" s="70" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="B76" s="73"/>
       <c r="C76" s="70"/>
       <c r="D76" s="74" t="s">
+        <v>378</v>
+      </c>
+      <c r="E76" s="75" t="s">
+        <v>379</v>
+      </c>
+      <c r="F76" s="75" t="s">
         <v>380</v>
-      </c>
-      <c r="E76" s="75" t="s">
-        <v>381</v>
-      </c>
-      <c r="F76" s="75" t="s">
-        <v>382</v>
       </c>
       <c r="G76" s="101">
         <v>75000</v>
@@ -10725,17 +10731,17 @@
     </row>
     <row r="77" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A77" s="70" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="B77" s="45"/>
       <c r="D77" s="71" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="E77" s="72" t="s">
         <v>40</v>
       </c>
       <c r="F77" s="72" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="G77" s="100">
         <v>73926</v>
@@ -10743,16 +10749,16 @@
     </row>
     <row r="78" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A78" s="70" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="D78" s="74" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="E78" s="75" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="F78" s="75" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="G78" s="101">
         <v>75000</v>
@@ -10760,17 +10766,17 @@
     </row>
     <row r="79" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A79" s="70" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="B79" s="45"/>
       <c r="D79" s="71" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="E79" s="72" t="s">
+        <v>392</v>
+      </c>
+      <c r="F79" s="72" t="s">
         <v>394</v>
-      </c>
-      <c r="F79" s="72" t="s">
-        <v>396</v>
       </c>
       <c r="G79" s="100">
         <v>74895</v>
@@ -10778,17 +10784,17 @@
     </row>
     <row r="80" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A80" s="70" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="B80" s="45"/>
       <c r="D80" s="74" t="s">
+        <v>396</v>
+      </c>
+      <c r="E80" s="75" t="s">
+        <v>429</v>
+      </c>
+      <c r="F80" s="75" t="s">
         <v>398</v>
-      </c>
-      <c r="E80" s="75" t="s">
-        <v>431</v>
-      </c>
-      <c r="F80" s="75" t="s">
-        <v>400</v>
       </c>
       <c r="G80" s="101">
         <v>75000</v>
@@ -10796,17 +10802,17 @@
     </row>
     <row r="81" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A81" s="70" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="B81" s="45"/>
       <c r="D81" s="71" t="s">
+        <v>399</v>
+      </c>
+      <c r="E81" s="78" t="s">
+        <v>196</v>
+      </c>
+      <c r="F81" s="72" t="s">
         <v>401</v>
-      </c>
-      <c r="E81" s="78" t="s">
-        <v>197</v>
-      </c>
-      <c r="F81" s="72" t="s">
-        <v>403</v>
       </c>
       <c r="G81" s="100">
         <v>74086</v>
@@ -10814,17 +10820,17 @@
     </row>
     <row r="82" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A82" s="70" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="B82" s="45"/>
       <c r="D82" s="74" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="E82" s="79" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F82" s="75" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="G82" s="101">
         <v>74999.509999999995</v>
@@ -10832,17 +10838,17 @@
     </row>
     <row r="83" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A83" s="70" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="B83" s="45"/>
       <c r="D83" s="71" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="E83" s="72" t="s">
+        <v>408</v>
+      </c>
+      <c r="F83" s="72" t="s">
         <v>410</v>
-      </c>
-      <c r="F83" s="72" t="s">
-        <v>412</v>
       </c>
       <c r="G83" s="100">
         <v>72088.37</v>
@@ -10850,17 +10856,17 @@
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A84" s="70" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="B84" s="45"/>
       <c r="D84" s="74" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="E84" s="75" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="F84" s="75" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="G84" s="101">
         <v>75000</v>
@@ -10868,17 +10874,17 @@
     </row>
     <row r="85" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A85" s="70" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="B85" s="45"/>
       <c r="D85" s="71" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="E85" s="72" t="s">
+        <v>417</v>
+      </c>
+      <c r="F85" s="72" t="s">
         <v>419</v>
-      </c>
-      <c r="F85" s="72" t="s">
-        <v>421</v>
       </c>
       <c r="G85" s="100">
         <v>74836</v>
@@ -11007,16 +11013,16 @@
         <v>2014</v>
       </c>
       <c r="C2" s="104" t="s">
+        <v>430</v>
+      </c>
+      <c r="D2" s="104" t="s">
+        <v>431</v>
+      </c>
+      <c r="E2" s="104" t="s">
+        <v>94</v>
+      </c>
+      <c r="F2" s="104" t="s">
         <v>432</v>
-      </c>
-      <c r="D2" s="104" t="s">
-        <v>433</v>
-      </c>
-      <c r="E2" s="104" t="s">
-        <v>95</v>
-      </c>
-      <c r="F2" s="104" t="s">
-        <v>434</v>
       </c>
       <c r="G2" s="104">
         <v>45467</v>
@@ -11027,13 +11033,13 @@
         <v>2014</v>
       </c>
       <c r="C3" s="104" t="s">
+        <v>433</v>
+      </c>
+      <c r="D3" s="104" t="s">
+        <v>434</v>
+      </c>
+      <c r="F3" s="104" t="s">
         <v>435</v>
-      </c>
-      <c r="D3" s="104" t="s">
-        <v>436</v>
-      </c>
-      <c r="F3" s="104" t="s">
-        <v>437</v>
       </c>
       <c r="G3" s="104">
         <v>30904</v>
@@ -11044,16 +11050,16 @@
         <v>2014</v>
       </c>
       <c r="C4" s="104" t="s">
+        <v>436</v>
+      </c>
+      <c r="D4" s="104" t="s">
+        <v>437</v>
+      </c>
+      <c r="E4" s="104" t="s">
         <v>438</v>
       </c>
-      <c r="D4" s="104" t="s">
+      <c r="F4" s="104" t="s">
         <v>439</v>
-      </c>
-      <c r="E4" s="104" t="s">
-        <v>440</v>
-      </c>
-      <c r="F4" s="104" t="s">
-        <v>441</v>
       </c>
       <c r="G4" s="104">
         <v>41324</v>
@@ -11064,25 +11070,25 @@
         <v>2014</v>
       </c>
       <c r="C5" s="104" t="s">
+        <v>440</v>
+      </c>
+      <c r="D5" s="104" t="s">
+        <v>379</v>
+      </c>
+      <c r="E5" s="104" t="s">
+        <v>441</v>
+      </c>
+      <c r="F5" s="104" t="s">
         <v>442</v>
-      </c>
-      <c r="D5" s="104" t="s">
-        <v>381</v>
-      </c>
-      <c r="E5" s="104" t="s">
-        <v>443</v>
-      </c>
-      <c r="F5" s="104" t="s">
-        <v>444</v>
       </c>
       <c r="G5" s="104">
         <v>101047</v>
       </c>
       <c r="H5" s="104" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="I5" s="104" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.3">
@@ -11090,22 +11096,22 @@
         <v>2014</v>
       </c>
       <c r="C6" s="104" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="D6" s="104" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E6" s="104" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F6" s="104" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="G6" s="104">
         <v>60020</v>
       </c>
       <c r="H6" s="104" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.3">
@@ -11113,22 +11119,22 @@
         <v>2014</v>
       </c>
       <c r="C7" s="104" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="D7" s="104" t="s">
         <v>28</v>
       </c>
       <c r="E7" s="104" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="F7" s="104" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="G7" s="104">
         <v>49993</v>
       </c>
       <c r="H7" s="104" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.3">
@@ -11136,13 +11142,13 @@
         <v>2014</v>
       </c>
       <c r="C8" s="104" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="D8" s="104" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F8" s="104" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="G8" s="104">
         <v>49247</v>
@@ -11153,7 +11159,7 @@
         <v>2014</v>
       </c>
       <c r="C9" s="104" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="D9" s="104" t="s">
         <v>35</v>
@@ -11162,7 +11168,7 @@
         <v>36</v>
       </c>
       <c r="F9" s="104" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="G9" s="104">
         <v>48909</v>
@@ -11173,16 +11179,16 @@
         <v>2014</v>
       </c>
       <c r="C10" s="104" t="s">
+        <v>453</v>
+      </c>
+      <c r="D10" s="104" t="s">
+        <v>454</v>
+      </c>
+      <c r="E10" s="104" t="s">
         <v>455</v>
       </c>
-      <c r="D10" s="104" t="s">
+      <c r="F10" s="104" t="s">
         <v>456</v>
-      </c>
-      <c r="E10" s="104" t="s">
-        <v>457</v>
-      </c>
-      <c r="F10" s="104" t="s">
-        <v>458</v>
       </c>
       <c r="G10" s="104">
         <v>50000</v>
@@ -11193,22 +11199,22 @@
         <v>2014</v>
       </c>
       <c r="C11" s="104" t="s">
+        <v>457</v>
+      </c>
+      <c r="D11" s="104" t="s">
+        <v>458</v>
+      </c>
+      <c r="E11" s="104" t="s">
+        <v>79</v>
+      </c>
+      <c r="F11" s="104" t="s">
         <v>459</v>
-      </c>
-      <c r="D11" s="104" t="s">
-        <v>460</v>
-      </c>
-      <c r="E11" s="104" t="s">
-        <v>80</v>
-      </c>
-      <c r="F11" s="104" t="s">
-        <v>461</v>
       </c>
       <c r="G11" s="104">
         <v>96000</v>
       </c>
       <c r="H11" s="104" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.3">
@@ -11216,16 +11222,16 @@
         <v>2014</v>
       </c>
       <c r="C12" s="104" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="D12" s="104" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="E12" s="104" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="F12" s="104" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="G12" s="104">
         <v>49906</v>
@@ -11239,16 +11245,16 @@
         <v>26</v>
       </c>
       <c r="C13" s="104" t="s">
+        <v>463</v>
+      </c>
+      <c r="D13" s="104" t="s">
+        <v>464</v>
+      </c>
+      <c r="E13" s="104" t="s">
         <v>465</v>
       </c>
-      <c r="D13" s="104" t="s">
+      <c r="F13" s="104" t="s">
         <v>466</v>
-      </c>
-      <c r="E13" s="104" t="s">
-        <v>467</v>
-      </c>
-      <c r="F13" s="104" t="s">
-        <v>468</v>
       </c>
       <c r="G13" s="104">
         <v>50000</v>
@@ -11262,19 +11268,19 @@
         <v>26</v>
       </c>
       <c r="C14" s="104" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="D14" s="104" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E14" s="104" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F14" s="104" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="H14" s="104" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.3">
@@ -11285,16 +11291,16 @@
         <v>26</v>
       </c>
       <c r="C15" s="104" t="s">
+        <v>469</v>
+      </c>
+      <c r="D15" s="104" t="s">
+        <v>134</v>
+      </c>
+      <c r="E15" s="104" t="s">
+        <v>470</v>
+      </c>
+      <c r="F15" s="104" t="s">
         <v>471</v>
-      </c>
-      <c r="D15" s="104" t="s">
-        <v>135</v>
-      </c>
-      <c r="E15" s="104" t="s">
-        <v>472</v>
-      </c>
-      <c r="F15" s="104" t="s">
-        <v>473</v>
       </c>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.3">
@@ -11305,10 +11311,10 @@
         <v>26</v>
       </c>
       <c r="D16" s="104" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="F16" s="104" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
@@ -11322,16 +11328,16 @@
         <v>35</v>
       </c>
       <c r="E17" s="104" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="F17" s="104" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H17" s="104" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="I17" s="104" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
@@ -11342,10 +11348,10 @@
         <v>26</v>
       </c>
       <c r="D18" s="104" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="F18" s="104" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
@@ -11356,22 +11362,22 @@
         <v>26</v>
       </c>
       <c r="C19" s="104" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="D19" s="104" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E19" s="104" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F19" s="104" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="G19" s="104">
         <v>69960</v>
       </c>
       <c r="H19" s="104" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
@@ -11382,16 +11388,16 @@
         <v>26</v>
       </c>
       <c r="C20" s="104" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="D20" s="104" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E20" s="104" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="F20" s="104" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="G20" s="104">
         <v>76098</v>
@@ -11405,31 +11411,31 @@
         <v>26</v>
       </c>
       <c r="C21" s="104" t="s">
+        <v>151</v>
+      </c>
+      <c r="D21" s="104" t="s">
         <v>152</v>
       </c>
-      <c r="D21" s="104" t="s">
+      <c r="E21" s="104" t="s">
+        <v>156</v>
+      </c>
+      <c r="F21" s="104" t="s">
         <v>153</v>
-      </c>
-      <c r="E21" s="104" t="s">
-        <v>157</v>
-      </c>
-      <c r="F21" s="104" t="s">
-        <v>154</v>
       </c>
       <c r="G21" s="104">
         <v>49953</v>
       </c>
       <c r="H21" s="104" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I21" s="104" t="s">
+        <v>124</v>
+      </c>
+      <c r="J21" s="104" t="s">
         <v>125</v>
       </c>
-      <c r="J21" s="104" t="s">
-        <v>126</v>
-      </c>
       <c r="K21" s="104" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
@@ -11440,19 +11446,19 @@
         <v>26</v>
       </c>
       <c r="C22" s="104" t="s">
+        <v>481</v>
+      </c>
+      <c r="D22" s="104" t="s">
+        <v>109</v>
+      </c>
+      <c r="E22" s="104" t="s">
+        <v>482</v>
+      </c>
+      <c r="F22" s="104" t="s">
         <v>483</v>
       </c>
-      <c r="D22" s="104" t="s">
-        <v>110</v>
-      </c>
-      <c r="E22" s="104" t="s">
+      <c r="H22" s="104" t="s">
         <v>484</v>
-      </c>
-      <c r="F22" s="104" t="s">
-        <v>485</v>
-      </c>
-      <c r="H22" s="104" t="s">
-        <v>486</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
@@ -11463,16 +11469,16 @@
         <v>26</v>
       </c>
       <c r="C23" s="104" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="D23" s="104" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E23" s="104" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="F23" s="104" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="G23" s="104">
         <v>95834</v>
@@ -11486,34 +11492,34 @@
         <v>26</v>
       </c>
       <c r="C24" s="104" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="D24" s="104" t="s">
         <v>36</v>
       </c>
       <c r="E24" s="104" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="F24" s="104" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="G24" s="104">
         <v>2017692</v>
       </c>
       <c r="H24" s="104" t="s">
+        <v>490</v>
+      </c>
+      <c r="I24" s="104" t="s">
+        <v>491</v>
+      </c>
+      <c r="J24" s="104" t="s">
+        <v>117</v>
+      </c>
+      <c r="K24" s="104" t="s">
+        <v>209</v>
+      </c>
+      <c r="L24" s="104" t="s">
         <v>492</v>
-      </c>
-      <c r="I24" s="104" t="s">
-        <v>493</v>
-      </c>
-      <c r="J24" s="104" t="s">
-        <v>118</v>
-      </c>
-      <c r="K24" s="104" t="s">
-        <v>210</v>
-      </c>
-      <c r="L24" s="104" t="s">
-        <v>494</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
@@ -11524,16 +11530,16 @@
         <v>26</v>
       </c>
       <c r="C25" s="104" t="s">
+        <v>493</v>
+      </c>
+      <c r="D25" s="104" t="s">
+        <v>494</v>
+      </c>
+      <c r="E25" s="104" t="s">
         <v>495</v>
       </c>
-      <c r="D25" s="104" t="s">
+      <c r="F25" s="104" t="s">
         <v>496</v>
-      </c>
-      <c r="E25" s="104" t="s">
-        <v>497</v>
-      </c>
-      <c r="F25" s="104" t="s">
-        <v>498</v>
       </c>
       <c r="G25" s="104">
         <v>91750</v>
@@ -11547,28 +11553,28 @@
         <v>26</v>
       </c>
       <c r="C26" s="104" t="s">
+        <v>497</v>
+      </c>
+      <c r="D26" s="104" t="s">
+        <v>498</v>
+      </c>
+      <c r="E26" s="104" t="s">
         <v>499</v>
       </c>
-      <c r="D26" s="104" t="s">
+      <c r="F26" s="104" t="s">
         <v>500</v>
-      </c>
-      <c r="E26" s="104" t="s">
-        <v>501</v>
-      </c>
-      <c r="F26" s="104" t="s">
-        <v>502</v>
       </c>
       <c r="G26" s="104">
         <v>109971.4</v>
       </c>
       <c r="H26" s="104" t="s">
+        <v>501</v>
+      </c>
+      <c r="I26" s="104" t="s">
+        <v>502</v>
+      </c>
+      <c r="J26" s="104" t="s">
         <v>503</v>
-      </c>
-      <c r="I26" s="104" t="s">
-        <v>504</v>
-      </c>
-      <c r="J26" s="104" t="s">
-        <v>505</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.3">
@@ -11579,25 +11585,25 @@
         <v>26</v>
       </c>
       <c r="C27" s="104" t="s">
+        <v>504</v>
+      </c>
+      <c r="D27" s="104" t="s">
+        <v>505</v>
+      </c>
+      <c r="E27" s="104" t="s">
         <v>506</v>
       </c>
-      <c r="D27" s="104" t="s">
+      <c r="F27" s="104" t="s">
         <v>507</v>
-      </c>
-      <c r="E27" s="104" t="s">
-        <v>508</v>
-      </c>
-      <c r="F27" s="104" t="s">
-        <v>509</v>
       </c>
       <c r="G27" s="104">
         <v>78679</v>
       </c>
       <c r="H27" s="104" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="I27" s="104" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.3">
@@ -11608,22 +11614,22 @@
         <v>26</v>
       </c>
       <c r="C28" s="104" t="s">
+        <v>509</v>
+      </c>
+      <c r="D28" s="104" t="s">
+        <v>510</v>
+      </c>
+      <c r="E28" s="104" t="s">
+        <v>473</v>
+      </c>
+      <c r="F28" s="104" t="s">
         <v>511</v>
-      </c>
-      <c r="D28" s="104" t="s">
-        <v>512</v>
-      </c>
-      <c r="E28" s="104" t="s">
-        <v>475</v>
-      </c>
-      <c r="F28" s="104" t="s">
-        <v>513</v>
       </c>
       <c r="G28" s="104">
         <v>54871</v>
       </c>
       <c r="H28" s="104" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
@@ -11634,22 +11640,22 @@
         <v>26</v>
       </c>
       <c r="C29" s="104" t="s">
+        <v>512</v>
+      </c>
+      <c r="D29" s="104" t="s">
+        <v>211</v>
+      </c>
+      <c r="E29" s="104" t="s">
+        <v>513</v>
+      </c>
+      <c r="F29" s="104" t="s">
         <v>514</v>
-      </c>
-      <c r="D29" s="104" t="s">
-        <v>212</v>
-      </c>
-      <c r="E29" s="104" t="s">
-        <v>515</v>
-      </c>
-      <c r="F29" s="104" t="s">
-        <v>516</v>
       </c>
       <c r="G29" s="104">
         <v>116779.08</v>
       </c>
       <c r="H29" s="104" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.3">
@@ -11660,25 +11666,25 @@
         <v>26</v>
       </c>
       <c r="C30" s="104" t="s">
+        <v>516</v>
+      </c>
+      <c r="D30" s="104" t="s">
+        <v>326</v>
+      </c>
+      <c r="E30" s="104" t="s">
+        <v>517</v>
+      </c>
+      <c r="F30" s="104" t="s">
         <v>518</v>
-      </c>
-      <c r="D30" s="104" t="s">
-        <v>328</v>
-      </c>
-      <c r="E30" s="104" t="s">
-        <v>519</v>
-      </c>
-      <c r="F30" s="104" t="s">
-        <v>520</v>
       </c>
       <c r="G30" s="104">
         <v>93749</v>
       </c>
       <c r="H30" s="104" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="I30" s="104" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
@@ -11689,16 +11695,16 @@
         <v>26</v>
       </c>
       <c r="C31" s="104" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="D31" s="104" t="s">
         <v>40</v>
       </c>
       <c r="E31" s="104" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F31" s="104" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="G31" s="104">
         <v>13503</v>
@@ -11712,28 +11718,28 @@
         <v>26</v>
       </c>
       <c r="C32" s="104" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="D32" s="104" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E32" s="104" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F32" s="104" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="G32" s="104">
         <v>129304</v>
       </c>
       <c r="H32" s="104" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="I32" s="104" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="J32" s="104" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
@@ -11744,25 +11750,25 @@
         <v>26</v>
       </c>
       <c r="C33" s="104" t="s">
+        <v>526</v>
+      </c>
+      <c r="D33" s="104" t="s">
+        <v>137</v>
+      </c>
+      <c r="E33" s="104" t="s">
+        <v>527</v>
+      </c>
+      <c r="F33" s="104" t="s">
         <v>528</v>
-      </c>
-      <c r="D33" s="104" t="s">
-        <v>138</v>
-      </c>
-      <c r="E33" s="104" t="s">
-        <v>529</v>
-      </c>
-      <c r="F33" s="104" t="s">
-        <v>530</v>
       </c>
       <c r="G33" s="104">
         <v>65084</v>
       </c>
       <c r="H33" s="104" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="I33" s="104" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.3">
@@ -11773,28 +11779,28 @@
         <v>26</v>
       </c>
       <c r="C34" s="104" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="D34" s="104" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E34" s="104" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F34" s="104" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="G34" s="104">
         <v>120009.5</v>
       </c>
       <c r="H34" s="104" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I34" s="104" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J34" s="104" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.3">
@@ -11805,22 +11811,22 @@
         <v>26</v>
       </c>
       <c r="C35" s="104" t="s">
+        <v>533</v>
+      </c>
+      <c r="D35" s="104" t="s">
+        <v>159</v>
+      </c>
+      <c r="E35" s="104" t="s">
+        <v>534</v>
+      </c>
+      <c r="F35" s="104" t="s">
         <v>535</v>
-      </c>
-      <c r="D35" s="104" t="s">
-        <v>160</v>
-      </c>
-      <c r="E35" s="104" t="s">
-        <v>536</v>
-      </c>
-      <c r="F35" s="104" t="s">
-        <v>537</v>
       </c>
       <c r="G35" s="104">
         <v>50000</v>
       </c>
       <c r="H35" s="104" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
@@ -11831,25 +11837,25 @@
         <v>26</v>
       </c>
       <c r="C36" s="104" t="s">
+        <v>537</v>
+      </c>
+      <c r="D36" s="104" t="s">
+        <v>538</v>
+      </c>
+      <c r="E36" s="104" t="s">
         <v>539</v>
       </c>
-      <c r="D36" s="104" t="s">
+      <c r="F36" s="104" t="s">
         <v>540</v>
-      </c>
-      <c r="E36" s="104" t="s">
-        <v>541</v>
-      </c>
-      <c r="F36" s="104" t="s">
-        <v>542</v>
       </c>
       <c r="G36" s="104">
         <v>59656</v>
       </c>
       <c r="H36" s="104" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="I36" s="104" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="J36" s="104" t="s">
         <v>40</v>
@@ -11863,25 +11869,25 @@
         <v>26</v>
       </c>
       <c r="C37" s="104" t="s">
+        <v>542</v>
+      </c>
+      <c r="D37" s="104" t="s">
+        <v>543</v>
+      </c>
+      <c r="E37" s="104" t="s">
         <v>544</v>
       </c>
-      <c r="D37" s="104" t="s">
+      <c r="F37" s="104" t="s">
         <v>545</v>
-      </c>
-      <c r="E37" s="104" t="s">
-        <v>546</v>
-      </c>
-      <c r="F37" s="104" t="s">
-        <v>547</v>
       </c>
       <c r="G37" s="104">
         <v>56518</v>
       </c>
       <c r="H37" s="104" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="I37" s="104" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.3">
@@ -11892,16 +11898,16 @@
         <v>26</v>
       </c>
       <c r="C38" s="104" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="D38" s="104" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="E38" s="104" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="F38" s="104" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="G38" s="104">
         <v>45977</v>
@@ -11915,22 +11921,22 @@
         <v>26</v>
       </c>
       <c r="C39" s="104" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="D39" s="104" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E39" s="104" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="F39" s="104" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="G39" s="104">
         <v>81229</v>
       </c>
       <c r="H39" s="104" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.3">
@@ -11941,16 +11947,16 @@
         <v>26</v>
       </c>
       <c r="C40" s="104" t="s">
+        <v>550</v>
+      </c>
+      <c r="D40" s="104" t="s">
+        <v>551</v>
+      </c>
+      <c r="E40" s="104" t="s">
         <v>552</v>
       </c>
-      <c r="D40" s="104" t="s">
+      <c r="F40" s="104" t="s">
         <v>553</v>
-      </c>
-      <c r="E40" s="104" t="s">
-        <v>554</v>
-      </c>
-      <c r="F40" s="104" t="s">
-        <v>555</v>
       </c>
       <c r="G40" s="104">
         <v>50000</v>
@@ -11959,10 +11965,10 @@
         <v>46</v>
       </c>
       <c r="I40" s="104" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="J40" s="104" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.3">
@@ -11973,25 +11979,25 @@
         <v>26</v>
       </c>
       <c r="C41" s="104" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="D41" s="104" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E41" s="104" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F41" s="104" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="G41" s="104">
         <v>69482</v>
       </c>
       <c r="H41" s="104" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I41" s="104" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.3">
@@ -12002,31 +12008,31 @@
         <v>26</v>
       </c>
       <c r="C42" s="104" t="s">
+        <v>556</v>
+      </c>
+      <c r="D42" s="104" t="s">
+        <v>557</v>
+      </c>
+      <c r="E42" s="104" t="s">
         <v>558</v>
       </c>
-      <c r="D42" s="104" t="s">
+      <c r="F42" s="104" t="s">
         <v>559</v>
-      </c>
-      <c r="E42" s="104" t="s">
-        <v>560</v>
-      </c>
-      <c r="F42" s="104" t="s">
-        <v>561</v>
       </c>
       <c r="G42" s="104">
         <v>118402.42</v>
       </c>
       <c r="H42" s="104" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="I42" s="104" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="J42" s="104" t="s">
         <v>48</v>
       </c>
       <c r="K42" s="104" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.3">
@@ -12037,25 +12043,25 @@
         <v>26</v>
       </c>
       <c r="C43" s="104" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="D43" s="104" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E43" s="104" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F43" s="104" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="G43" s="104">
         <v>59605</v>
       </c>
       <c r="H43" s="104" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="I43" s="104" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.3">
@@ -12066,22 +12072,22 @@
         <v>26</v>
       </c>
       <c r="C44" s="104" t="s">
+        <v>564</v>
+      </c>
+      <c r="D44" s="104" t="s">
+        <v>494</v>
+      </c>
+      <c r="E44" s="104" t="s">
+        <v>565</v>
+      </c>
+      <c r="F44" s="104" t="s">
         <v>566</v>
-      </c>
-      <c r="D44" s="104" t="s">
-        <v>496</v>
-      </c>
-      <c r="E44" s="104" t="s">
-        <v>567</v>
-      </c>
-      <c r="F44" s="104" t="s">
-        <v>568</v>
       </c>
       <c r="G44" s="104">
         <v>74869</v>
       </c>
       <c r="H44" s="104" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.3">
@@ -12092,31 +12098,31 @@
         <v>26</v>
       </c>
       <c r="C45" s="104" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="D45" s="104" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="E45" s="104" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="F45" s="104" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="G45" s="105">
         <v>126310.39999999999</v>
       </c>
       <c r="H45" s="104" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="I45" s="104" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="J45" s="104" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="K45" s="104" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.3">
@@ -12127,16 +12133,16 @@
         <v>26</v>
       </c>
       <c r="C46" s="104" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="D46" s="104" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="E46" s="104" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="F46" s="104" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="G46" s="104">
         <v>81357</v>
@@ -12150,25 +12156,25 @@
         <v>26</v>
       </c>
       <c r="C47" s="104" t="s">
+        <v>573</v>
+      </c>
+      <c r="D47" s="104" t="s">
+        <v>574</v>
+      </c>
+      <c r="E47" s="104" t="s">
         <v>575</v>
       </c>
-      <c r="D47" s="104" t="s">
+      <c r="F47" s="104" t="s">
         <v>576</v>
-      </c>
-      <c r="E47" s="104" t="s">
-        <v>577</v>
-      </c>
-      <c r="F47" s="104" t="s">
-        <v>578</v>
       </c>
       <c r="G47" s="104">
         <v>77807</v>
       </c>
       <c r="H47" s="104" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I47" s="104" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.3">
@@ -12176,28 +12182,28 @@
         <v>2020</v>
       </c>
       <c r="B48" s="104" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C48" s="104" t="s">
+        <v>577</v>
+      </c>
+      <c r="D48" s="104" t="s">
+        <v>578</v>
+      </c>
+      <c r="E48" s="104" t="s">
+        <v>211</v>
+      </c>
+      <c r="F48" s="104" t="s">
         <v>579</v>
-      </c>
-      <c r="D48" s="104" t="s">
-        <v>580</v>
-      </c>
-      <c r="E48" s="104" t="s">
-        <v>212</v>
-      </c>
-      <c r="F48" s="104" t="s">
-        <v>581</v>
       </c>
       <c r="G48" s="104">
         <v>75000</v>
       </c>
       <c r="H48" s="104" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="I48" s="104" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.3">
@@ -12205,43 +12211,43 @@
         <v>2020</v>
       </c>
       <c r="B49" s="104" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C49" s="104" t="s">
+        <v>581</v>
+      </c>
+      <c r="D49" s="104" t="s">
+        <v>582</v>
+      </c>
+      <c r="E49" s="104" t="s">
         <v>583</v>
       </c>
-      <c r="D49" s="104" t="s">
+      <c r="F49" s="104" t="s">
         <v>584</v>
-      </c>
-      <c r="E49" s="104" t="s">
-        <v>585</v>
-      </c>
-      <c r="F49" s="104" t="s">
-        <v>586</v>
       </c>
       <c r="G49" s="104">
         <v>40820</v>
       </c>
       <c r="H49" s="104" t="s">
+        <v>585</v>
+      </c>
+      <c r="I49" s="104" t="s">
+        <v>586</v>
+      </c>
+      <c r="J49" s="104" t="s">
         <v>587</v>
       </c>
-      <c r="I49" s="104" t="s">
+      <c r="K49" s="104" t="s">
         <v>588</v>
       </c>
-      <c r="J49" s="104" t="s">
+      <c r="L49" s="104" t="s">
         <v>589</v>
       </c>
-      <c r="K49" s="104" t="s">
+      <c r="M49" s="104" t="s">
         <v>590</v>
       </c>
-      <c r="L49" s="104" t="s">
+      <c r="N49" s="104" t="s">
         <v>591</v>
-      </c>
-      <c r="M49" s="104" t="s">
-        <v>592</v>
-      </c>
-      <c r="N49" s="104" t="s">
-        <v>593</v>
       </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.3">
@@ -12249,31 +12255,31 @@
         <v>2020</v>
       </c>
       <c r="B50" s="104" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C50" s="104" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="D50" s="104" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E50" s="104" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F50" s="104" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="G50" s="104">
         <v>70000</v>
       </c>
       <c r="H50" s="104" t="s">
+        <v>156</v>
+      </c>
+      <c r="I50" s="104" t="s">
         <v>157</v>
       </c>
-      <c r="I50" s="104" t="s">
-        <v>158</v>
-      </c>
       <c r="J50" s="104" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.3">
@@ -12281,28 +12287,28 @@
         <v>2020</v>
       </c>
       <c r="B51" s="104" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C51" s="104" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="D51" s="104" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="E51" s="104" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F51" s="104" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="G51" s="104">
         <v>75250</v>
       </c>
       <c r="H51" s="104" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="I51" s="104" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.3">
@@ -12310,34 +12316,34 @@
         <v>2020</v>
       </c>
       <c r="B52" s="104" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C52" s="104" t="s">
+        <v>597</v>
+      </c>
+      <c r="D52" s="104" t="s">
+        <v>257</v>
+      </c>
+      <c r="E52" s="104" t="s">
+        <v>598</v>
+      </c>
+      <c r="F52" s="104" t="s">
         <v>599</v>
-      </c>
-      <c r="D52" s="104" t="s">
-        <v>259</v>
-      </c>
-      <c r="E52" s="104" t="s">
-        <v>600</v>
-      </c>
-      <c r="F52" s="104" t="s">
-        <v>601</v>
       </c>
       <c r="G52" s="104">
         <v>75000</v>
       </c>
       <c r="H52" s="104" t="s">
+        <v>600</v>
+      </c>
+      <c r="I52" s="104" t="s">
+        <v>601</v>
+      </c>
+      <c r="J52" s="104" t="s">
         <v>602</v>
       </c>
-      <c r="I52" s="104" t="s">
-        <v>603</v>
-      </c>
-      <c r="J52" s="104" t="s">
-        <v>604</v>
-      </c>
       <c r="K52" s="104" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.3">
@@ -12345,28 +12351,28 @@
         <v>2020</v>
       </c>
       <c r="B53" s="104" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C53" s="104" t="s">
+        <v>603</v>
+      </c>
+      <c r="D53" s="104" t="s">
+        <v>604</v>
+      </c>
+      <c r="E53" s="104" t="s">
         <v>605</v>
       </c>
-      <c r="D53" s="104" t="s">
+      <c r="F53" s="104" t="s">
         <v>606</v>
-      </c>
-      <c r="E53" s="104" t="s">
-        <v>607</v>
-      </c>
-      <c r="F53" s="104" t="s">
-        <v>608</v>
       </c>
       <c r="G53" s="104">
         <v>74641</v>
       </c>
       <c r="H53" s="104" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="I53" s="104" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.3">
@@ -12374,25 +12380,25 @@
         <v>2020</v>
       </c>
       <c r="B54" s="104" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C54" s="104" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="D54" s="104" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E54" s="104" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F54" s="104" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="G54" s="104">
         <v>75000</v>
       </c>
       <c r="H54" s="104" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.3">
@@ -12400,28 +12406,28 @@
         <v>2020</v>
       </c>
       <c r="B55" s="104" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C55" s="104" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="D55" s="104" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="E55" s="104" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="F55" s="104" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="G55" s="106">
         <v>65704.160000000003</v>
       </c>
       <c r="H55" s="104" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="I55" s="104" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.3">
@@ -12429,19 +12435,19 @@
         <v>2020</v>
       </c>
       <c r="B56" s="104" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C56" s="104" t="s">
+        <v>612</v>
+      </c>
+      <c r="D56" s="104" t="s">
+        <v>613</v>
+      </c>
+      <c r="E56" s="104" t="s">
         <v>614</v>
       </c>
-      <c r="D56" s="104" t="s">
+      <c r="F56" s="104" t="s">
         <v>615</v>
-      </c>
-      <c r="E56" s="104" t="s">
-        <v>616</v>
-      </c>
-      <c r="F56" s="104" t="s">
-        <v>617</v>
       </c>
       <c r="G56" s="104">
         <v>75000</v>
@@ -12450,7 +12456,7 @@
         <v>36</v>
       </c>
       <c r="I56" s="104" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.3">
@@ -12458,28 +12464,28 @@
         <v>2020</v>
       </c>
       <c r="B57" s="104" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C57" s="104" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="D57" s="104" t="s">
         <v>40</v>
       </c>
       <c r="E57" s="104" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="F57" s="104" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="G57" s="104">
         <v>49500</v>
       </c>
       <c r="H57" s="104" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="I57" s="104" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.3">
@@ -12490,25 +12496,25 @@
         <v>26</v>
       </c>
       <c r="C58" s="107" t="s">
+        <v>619</v>
+      </c>
+      <c r="D58" s="104" t="s">
+        <v>494</v>
+      </c>
+      <c r="E58" s="104" t="s">
+        <v>620</v>
+      </c>
+      <c r="F58" s="104" t="s">
         <v>621</v>
-      </c>
-      <c r="D58" s="104" t="s">
-        <v>496</v>
-      </c>
-      <c r="E58" s="104" t="s">
-        <v>622</v>
-      </c>
-      <c r="F58" s="104" t="s">
-        <v>623</v>
       </c>
       <c r="G58" s="104">
         <v>75000</v>
       </c>
       <c r="H58" s="104" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="I58" s="104" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.3">
@@ -12519,25 +12525,25 @@
         <v>26</v>
       </c>
       <c r="C59" s="107" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="D59" s="104" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="E59" s="104" t="s">
+        <v>505</v>
+      </c>
+      <c r="F59" s="104" t="s">
         <v>507</v>
-      </c>
-      <c r="F59" s="104" t="s">
-        <v>509</v>
       </c>
       <c r="G59" s="104">
         <v>74081</v>
       </c>
       <c r="H59" s="104" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="I59" s="104" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.3">
@@ -12548,34 +12554,34 @@
         <v>26</v>
       </c>
       <c r="C60" s="107" t="s">
+        <v>625</v>
+      </c>
+      <c r="D60" s="104" t="s">
+        <v>626</v>
+      </c>
+      <c r="E60" s="104" t="s">
+        <v>187</v>
+      </c>
+      <c r="F60" s="104" t="s">
         <v>627</v>
-      </c>
-      <c r="D60" s="104" t="s">
-        <v>628</v>
-      </c>
-      <c r="E60" s="104" t="s">
-        <v>188</v>
-      </c>
-      <c r="F60" s="104" t="s">
-        <v>629</v>
       </c>
       <c r="G60" s="104">
         <v>75000</v>
       </c>
       <c r="H60" s="104" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="I60" s="104" t="s">
+        <v>628</v>
+      </c>
+      <c r="J60" s="104" t="s">
+        <v>629</v>
+      </c>
+      <c r="K60" s="104" t="s">
         <v>630</v>
       </c>
-      <c r="J60" s="104" t="s">
+      <c r="L60" s="104" t="s">
         <v>631</v>
-      </c>
-      <c r="K60" s="104" t="s">
-        <v>632</v>
-      </c>
-      <c r="L60" s="104" t="s">
-        <v>633</v>
       </c>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.3">
@@ -12586,16 +12592,16 @@
         <v>26</v>
       </c>
       <c r="C61" s="107" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="D61" s="104" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="E61" s="104" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="F61" s="104" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="G61" s="104">
         <v>74765</v>
@@ -12612,31 +12618,31 @@
         <v>26</v>
       </c>
       <c r="C62" s="107" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="D62" s="104" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="E62" s="104" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="F62" s="104" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="G62" s="104">
         <v>153805</v>
       </c>
       <c r="H62" s="104" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I62" s="104" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="J62" s="104" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="K62" s="104" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.3">
@@ -12647,25 +12653,25 @@
         <v>26</v>
       </c>
       <c r="C63" s="107" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="D63" s="104" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E63" s="104" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F63" s="104" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="G63" s="104">
         <v>70084</v>
       </c>
       <c r="H63" s="104" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I63" s="104" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.3">
@@ -12676,28 +12682,28 @@
         <v>26</v>
       </c>
       <c r="C64" s="107" t="s">
+        <v>639</v>
+      </c>
+      <c r="D64" s="104" t="s">
+        <v>640</v>
+      </c>
+      <c r="E64" s="104" t="s">
         <v>641</v>
       </c>
-      <c r="D64" s="104" t="s">
+      <c r="F64" s="104" t="s">
         <v>642</v>
-      </c>
-      <c r="E64" s="104" t="s">
-        <v>643</v>
-      </c>
-      <c r="F64" s="104" t="s">
-        <v>644</v>
       </c>
       <c r="G64" s="104">
         <v>75000</v>
       </c>
       <c r="H64" s="104" t="s">
+        <v>643</v>
+      </c>
+      <c r="I64" s="104" t="s">
+        <v>644</v>
+      </c>
+      <c r="J64" s="104" t="s">
         <v>645</v>
-      </c>
-      <c r="I64" s="104" t="s">
-        <v>646</v>
-      </c>
-      <c r="J64" s="104" t="s">
-        <v>647</v>
       </c>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.3">
@@ -12708,25 +12714,25 @@
         <v>26</v>
       </c>
       <c r="C65" s="107" t="s">
+        <v>646</v>
+      </c>
+      <c r="D65" s="104" t="s">
+        <v>647</v>
+      </c>
+      <c r="E65" s="104" t="s">
         <v>648</v>
       </c>
-      <c r="D65" s="104" t="s">
+      <c r="F65" s="104" t="s">
         <v>649</v>
-      </c>
-      <c r="E65" s="104" t="s">
-        <v>650</v>
-      </c>
-      <c r="F65" s="104" t="s">
-        <v>651</v>
       </c>
       <c r="G65" s="104">
         <v>52640</v>
       </c>
       <c r="H65" s="104" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="I65" s="104" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.3">
@@ -12737,16 +12743,16 @@
         <v>26</v>
       </c>
       <c r="C66" s="107" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="D66" s="104" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E66" s="104" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="F66" s="104" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="G66" s="104">
         <v>162571.4</v>
@@ -12760,25 +12766,25 @@
         <v>26</v>
       </c>
       <c r="C67" s="107" t="s">
+        <v>653</v>
+      </c>
+      <c r="D67" s="104" t="s">
+        <v>420</v>
+      </c>
+      <c r="E67" s="104" t="s">
+        <v>654</v>
+      </c>
+      <c r="F67" s="104" t="s">
         <v>655</v>
-      </c>
-      <c r="D67" s="104" t="s">
-        <v>422</v>
-      </c>
-      <c r="E67" s="104" t="s">
-        <v>656</v>
-      </c>
-      <c r="F67" s="104" t="s">
-        <v>657</v>
       </c>
       <c r="G67" s="104">
         <v>72618</v>
       </c>
       <c r="H67" s="104" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="I67" s="104" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.3">
@@ -12789,22 +12795,22 @@
         <v>26</v>
       </c>
       <c r="C68" s="107" t="s">
+        <v>658</v>
+      </c>
+      <c r="D68" s="104" t="s">
+        <v>659</v>
+      </c>
+      <c r="E68" s="104" t="s">
+        <v>409</v>
+      </c>
+      <c r="F68" s="104" t="s">
         <v>660</v>
-      </c>
-      <c r="D68" s="104" t="s">
-        <v>661</v>
-      </c>
-      <c r="E68" s="104" t="s">
-        <v>411</v>
-      </c>
-      <c r="F68" s="104" t="s">
-        <v>662</v>
       </c>
       <c r="G68" s="104">
         <v>127756.75</v>
       </c>
       <c r="H68" s="104" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.3">
@@ -12815,37 +12821,37 @@
         <v>26</v>
       </c>
       <c r="C69" s="107" t="s">
+        <v>661</v>
+      </c>
+      <c r="D69" s="104" t="s">
+        <v>662</v>
+      </c>
+      <c r="E69" s="104" t="s">
+        <v>101</v>
+      </c>
+      <c r="F69" s="104" t="s">
         <v>663</v>
-      </c>
-      <c r="D69" s="104" t="s">
-        <v>664</v>
-      </c>
-      <c r="E69" s="104" t="s">
-        <v>102</v>
-      </c>
-      <c r="F69" s="104" t="s">
-        <v>665</v>
       </c>
       <c r="G69" s="104">
         <v>74802</v>
       </c>
       <c r="H69" s="104" t="s">
+        <v>664</v>
+      </c>
+      <c r="I69" s="104" t="s">
+        <v>665</v>
+      </c>
+      <c r="J69" s="104" t="s">
+        <v>102</v>
+      </c>
+      <c r="K69" s="104" t="s">
         <v>666</v>
       </c>
-      <c r="I69" s="104" t="s">
+      <c r="L69" s="104" t="s">
+        <v>105</v>
+      </c>
+      <c r="M69" s="104" t="s">
         <v>667</v>
-      </c>
-      <c r="J69" s="104" t="s">
-        <v>103</v>
-      </c>
-      <c r="K69" s="104" t="s">
-        <v>668</v>
-      </c>
-      <c r="L69" s="104" t="s">
-        <v>106</v>
-      </c>
-      <c r="M69" s="104" t="s">
-        <v>669</v>
       </c>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.3">
@@ -12856,28 +12862,28 @@
         <v>26</v>
       </c>
       <c r="C70" s="107" t="s">
+        <v>668</v>
+      </c>
+      <c r="D70" s="104" t="s">
+        <v>669</v>
+      </c>
+      <c r="E70" s="104" t="s">
+        <v>102</v>
+      </c>
+      <c r="F70" s="104" t="s">
         <v>670</v>
-      </c>
-      <c r="D70" s="104" t="s">
-        <v>671</v>
-      </c>
-      <c r="E70" s="104" t="s">
-        <v>103</v>
-      </c>
-      <c r="F70" s="104" t="s">
-        <v>672</v>
       </c>
       <c r="G70" s="104">
         <v>75000</v>
       </c>
       <c r="H70" s="104" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="I70" s="104" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="J70" s="104" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.3">
@@ -12888,22 +12894,22 @@
         <v>26</v>
       </c>
       <c r="C71" s="107" t="s">
+        <v>673</v>
+      </c>
+      <c r="D71" s="104" t="s">
+        <v>674</v>
+      </c>
+      <c r="E71" s="104" t="s">
+        <v>315</v>
+      </c>
+      <c r="F71" s="104" t="s">
         <v>675</v>
-      </c>
-      <c r="D71" s="104" t="s">
-        <v>676</v>
-      </c>
-      <c r="E71" s="104" t="s">
-        <v>317</v>
-      </c>
-      <c r="F71" s="104" t="s">
-        <v>677</v>
       </c>
       <c r="G71" s="104">
         <v>74998</v>
       </c>
       <c r="H71" s="104" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.3">
@@ -12914,25 +12920,25 @@
         <v>26</v>
       </c>
       <c r="C72" s="107" t="s">
+        <v>677</v>
+      </c>
+      <c r="D72" s="104" t="s">
+        <v>678</v>
+      </c>
+      <c r="E72" s="104" t="s">
+        <v>368</v>
+      </c>
+      <c r="F72" s="104" t="s">
         <v>679</v>
-      </c>
-      <c r="D72" s="104" t="s">
-        <v>680</v>
-      </c>
-      <c r="E72" s="104" t="s">
-        <v>370</v>
-      </c>
-      <c r="F72" s="104" t="s">
-        <v>681</v>
       </c>
       <c r="G72" s="104">
         <v>68703</v>
       </c>
       <c r="H72" s="104" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I72" s="104" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.3">
@@ -12943,31 +12949,31 @@
         <v>26</v>
       </c>
       <c r="C73" s="107" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="D73" s="104" t="s">
+        <v>574</v>
+      </c>
+      <c r="E73" s="104" t="s">
+        <v>575</v>
+      </c>
+      <c r="F73" s="104" t="s">
         <v>576</v>
-      </c>
-      <c r="E73" s="104" t="s">
-        <v>577</v>
-      </c>
-      <c r="F73" s="104" t="s">
-        <v>578</v>
       </c>
       <c r="G73" s="104">
         <v>75000</v>
       </c>
       <c r="H73" s="104" t="s">
+        <v>681</v>
+      </c>
+      <c r="I73" s="104" t="s">
+        <v>682</v>
+      </c>
+      <c r="J73" s="104" t="s">
         <v>683</v>
       </c>
-      <c r="I73" s="104" t="s">
+      <c r="K73" s="104" t="s">
         <v>684</v>
-      </c>
-      <c r="J73" s="104" t="s">
-        <v>685</v>
-      </c>
-      <c r="K73" s="104" t="s">
-        <v>686</v>
       </c>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.3">
@@ -12978,16 +12984,16 @@
         <v>26</v>
       </c>
       <c r="C74" s="107" t="s">
+        <v>685</v>
+      </c>
+      <c r="D74" s="104" t="s">
+        <v>686</v>
+      </c>
+      <c r="E74" s="104" t="s">
         <v>687</v>
       </c>
-      <c r="D74" s="104" t="s">
+      <c r="F74" s="104" t="s">
         <v>688</v>
-      </c>
-      <c r="E74" s="104" t="s">
-        <v>689</v>
-      </c>
-      <c r="F74" s="104" t="s">
-        <v>690</v>
       </c>
       <c r="G74" s="104">
         <v>75000</v>
@@ -12996,10 +13002,10 @@
         <v>36</v>
       </c>
       <c r="I74" s="104" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J74" s="104" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.3">
@@ -13010,22 +13016,22 @@
         <v>26</v>
       </c>
       <c r="C75" s="107" t="s">
+        <v>689</v>
+      </c>
+      <c r="D75" s="104" t="s">
+        <v>690</v>
+      </c>
+      <c r="E75" s="104" t="s">
         <v>691</v>
       </c>
-      <c r="D75" s="104" t="s">
+      <c r="F75" s="104" t="s">
         <v>692</v>
-      </c>
-      <c r="E75" s="104" t="s">
-        <v>693</v>
-      </c>
-      <c r="F75" s="104" t="s">
-        <v>694</v>
       </c>
       <c r="G75" s="104">
         <v>33549</v>
       </c>
       <c r="H75" s="104" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.3">
@@ -13036,31 +13042,31 @@
         <v>26</v>
       </c>
       <c r="C76" s="107" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="D76" s="104" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E76" s="104" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="F76" s="104" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="G76" s="104">
         <v>359539</v>
       </c>
       <c r="H76" s="104" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="I76" s="104" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="J76" s="104" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="K76" s="104" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.3">
@@ -13071,25 +13077,25 @@
         <v>26</v>
       </c>
       <c r="C77" s="107" t="s">
+        <v>697</v>
+      </c>
+      <c r="D77" s="104" t="s">
+        <v>698</v>
+      </c>
+      <c r="E77" s="104" t="s">
+        <v>137</v>
+      </c>
+      <c r="F77" s="104" t="s">
         <v>699</v>
-      </c>
-      <c r="D77" s="104" t="s">
-        <v>700</v>
-      </c>
-      <c r="E77" s="104" t="s">
-        <v>138</v>
-      </c>
-      <c r="F77" s="104" t="s">
-        <v>701</v>
       </c>
       <c r="G77" s="104">
         <v>75000</v>
       </c>
       <c r="H77" s="104" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="I77" s="104" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.3">
@@ -13100,22 +13106,22 @@
         <v>26</v>
       </c>
       <c r="C78" s="107" t="s">
+        <v>700</v>
+      </c>
+      <c r="D78" s="104" t="s">
+        <v>701</v>
+      </c>
+      <c r="E78" s="104" t="s">
+        <v>363</v>
+      </c>
+      <c r="F78" s="104" t="s">
         <v>702</v>
-      </c>
-      <c r="D78" s="104" t="s">
-        <v>703</v>
-      </c>
-      <c r="E78" s="104" t="s">
-        <v>365</v>
-      </c>
-      <c r="F78" s="104" t="s">
-        <v>704</v>
       </c>
       <c r="G78" s="104">
         <v>98275</v>
       </c>
       <c r="H78" s="104" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.3">
@@ -13126,28 +13132,28 @@
         <v>26</v>
       </c>
       <c r="C79" s="107" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="D79" s="104" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="E79" s="104" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="F79" s="104" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="G79" s="104">
         <v>69997.67</v>
       </c>
       <c r="H79" s="104" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="I79" s="104" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J79" s="104" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
     </row>
   </sheetData>
@@ -13182,31 +13188,31 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="C1">
         <v>15</v>
       </c>
       <c r="D1" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="E1">
         <v>29</v>
       </c>
       <c r="F1" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="G1">
         <v>43</v>
       </c>
       <c r="H1" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="I1">
         <v>57</v>
       </c>
       <c r="J1" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
@@ -13214,31 +13220,31 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="C2">
         <v>16</v>
       </c>
       <c r="D2" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="E2">
         <v>30</v>
       </c>
       <c r="F2" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="G2">
         <v>44</v>
       </c>
       <c r="H2" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="I2">
         <v>58</v>
       </c>
       <c r="J2" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -13246,25 +13252,25 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="C3">
         <v>17</v>
       </c>
       <c r="D3" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="E3">
         <v>31</v>
       </c>
       <c r="F3" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="G3">
         <v>45</v>
       </c>
       <c r="H3" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -13272,25 +13278,25 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="C4">
         <v>18</v>
       </c>
       <c r="D4" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="E4">
         <v>32</v>
       </c>
       <c r="F4" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="G4">
         <v>46</v>
       </c>
       <c r="H4" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
@@ -13298,25 +13304,25 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="C5">
         <v>19</v>
       </c>
       <c r="D5" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="E5">
         <v>33</v>
       </c>
       <c r="F5" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="G5">
         <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
@@ -13324,25 +13330,25 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="C6">
         <v>20</v>
       </c>
       <c r="D6" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="E6">
         <v>34</v>
       </c>
       <c r="F6" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="G6">
         <v>48</v>
       </c>
       <c r="H6" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
@@ -13350,25 +13356,25 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="C7">
         <v>21</v>
       </c>
       <c r="D7" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="E7">
         <v>35</v>
       </c>
       <c r="F7" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="G7">
         <v>49</v>
       </c>
       <c r="H7" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
@@ -13376,25 +13382,25 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="C8">
         <v>22</v>
       </c>
       <c r="D8" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="E8">
         <v>36</v>
       </c>
       <c r="F8" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="G8">
         <v>50</v>
       </c>
       <c r="H8" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
@@ -13402,25 +13408,25 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="C9">
         <v>23</v>
       </c>
       <c r="D9" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="E9">
         <v>37</v>
       </c>
       <c r="F9" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="G9">
         <v>51</v>
       </c>
       <c r="H9" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
@@ -13428,25 +13434,25 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="C10">
         <v>24</v>
       </c>
       <c r="D10" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="E10">
         <v>38</v>
       </c>
       <c r="F10" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="G10">
         <v>52</v>
       </c>
       <c r="H10" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
@@ -13454,25 +13460,25 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="C11">
         <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="E11">
         <v>39</v>
       </c>
       <c r="F11" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="G11">
         <v>53</v>
       </c>
       <c r="H11" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
@@ -13480,25 +13486,25 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="C12">
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="E12">
         <v>40</v>
       </c>
       <c r="F12" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="G12">
         <v>54</v>
       </c>
       <c r="H12" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
@@ -13506,25 +13512,25 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="C13">
         <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="E13">
         <v>41</v>
       </c>
       <c r="F13" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="G13">
         <v>55</v>
       </c>
       <c r="H13" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
@@ -13532,25 +13538,25 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="C14">
         <v>28</v>
       </c>
       <c r="D14" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="E14">
         <v>42</v>
       </c>
       <c r="F14" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="G14">
         <v>56</v>
       </c>
       <c r="H14" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
     </row>
   </sheetData>
